--- a/統計管制與最佳化方法概論/homework/考古作業/HW11/HW11_0.xlsx
+++ b/統計管制與最佳化方法概論/homework/考古作業/HW11/HW11_0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\NTU碩士\修課\Statistical Control and Optimization\HW\HW11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\考古作業\HW11\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1D8ED6-62E3-46AB-8C88-3A85109A0A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="0" windowWidth="655350" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="30" r:id="rId1"/>
@@ -176,7 +177,7 @@
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -188,13 +189,22 @@
         </x15:modelTables>
       </x15:dataModel>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="ThisWorkbookDataModel" description="資料模型" type="5" refreshedVersion="5" minRefreshableVersion="5" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="ThisWorkbookDataModel" description="資料模型" type="5" refreshedVersion="5" minRefreshableVersion="5" background="1">
     <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
     <extLst>
@@ -203,7 +213,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="2" name="WorksheetConnection_1!$A$46:$C$50" type="102" refreshedVersion="5" minRefreshableVersion="5">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="WorksheetConnection_1!$A$46:$C$50" type="102" refreshedVersion="5" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="範圍-84bcd8b9-4c9f-4b08-8f30-869a09f5c714" autoDelete="1" usedByAddin="1">
@@ -1723,7 +1733,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
@@ -2824,19 +2834,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2851,34 +2879,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2975,7 +2985,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3509,7 +3518,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3621,7 +3629,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3921,7 +3928,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4040,7 +4046,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4201,7 +4206,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4481,7 +4485,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4600,7 +4603,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4761,7 +4763,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5045,7 +5046,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5164,7 +5164,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5325,7 +5324,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5701,7 +5699,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5820,7 +5817,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5989,7 +5985,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6365,7 +6360,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6484,7 +6478,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6641,7 +6634,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7114,7 +7106,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7233,7 +7224,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7394,7 +7384,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7694,7 +7683,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7813,7 +7801,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7974,7 +7961,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8273,7 +8259,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8392,7 +8377,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8553,7 +8537,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8853,7 +8836,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8972,7 +8954,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9128,7 +9109,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9428,7 +9408,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9547,7 +9526,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9703,7 +9681,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10003,7 +9980,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10122,7 +10098,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16914,7 +16889,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -16952,7 +16933,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -16982,7 +16969,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4"/>
+        <xdr:cNvPr id="5" name="圖片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -17020,7 +17013,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="群組 3"/>
+        <xdr:cNvPr id="4" name="群組 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -17033,7 +17032,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="16" name="群組 15"/>
+          <xdr:cNvPr id="16" name="群組 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -17046,7 +17051,13 @@
         </xdr:grpSpPr>
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="6" name="圖表 5"/>
+            <xdr:cNvPr id="6" name="圖表 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -17061,7 +17072,13 @@
         </xdr:graphicFrame>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="15" name="群組 14"/>
+            <xdr:cNvPr id="15" name="群組 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -17074,7 +17091,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="7" name="文字方塊 6"/>
+              <xdr:cNvPr id="7" name="文字方塊 6">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -17126,7 +17149,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="8" name="文字方塊 7"/>
+              <xdr:cNvPr id="8" name="文字方塊 7">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -17178,7 +17207,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="9" name="文字方塊 8"/>
+              <xdr:cNvPr id="9" name="文字方塊 8">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -17230,7 +17265,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="10" name="文字方塊 9"/>
+              <xdr:cNvPr id="10" name="文字方塊 9">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -17282,7 +17323,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="11" name="文字方塊 10"/>
+              <xdr:cNvPr id="11" name="文字方塊 10">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -17334,7 +17381,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="12" name="文字方塊 11"/>
+              <xdr:cNvPr id="12" name="文字方塊 11">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -17386,7 +17439,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="13" name="文字方塊 12"/>
+              <xdr:cNvPr id="13" name="文字方塊 12">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -17438,7 +17497,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="14" name="文字方塊 13"/>
+              <xdr:cNvPr id="14" name="文字方塊 13">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -17492,7 +17557,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="文字方塊 16"/>
+          <xdr:cNvPr id="17" name="文字方塊 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -17560,7 +17631,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="29" name="群組 28"/>
+        <xdr:cNvPr id="29" name="群組 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -17573,7 +17650,13 @@
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="18" name="圖表 17"/>
+          <xdr:cNvPr id="18" name="圖表 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGraphicFramePr/>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
@@ -17588,7 +17671,13 @@
       </xdr:graphicFrame>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="26" name="群組 25"/>
+          <xdr:cNvPr id="26" name="群組 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -17601,7 +17690,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="文字方塊 18"/>
+            <xdr:cNvPr id="21" name="文字方塊 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -17744,7 +17839,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="文字方塊 18"/>
+            <xdr:cNvPr id="22" name="文字方塊 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -17887,7 +17988,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="23" name="文字方塊 18"/>
+            <xdr:cNvPr id="23" name="文字方塊 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -18030,7 +18137,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="文字方塊 18"/>
+            <xdr:cNvPr id="24" name="文字方塊 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -18173,7 +18286,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="25" name="文字方塊 18"/>
+            <xdr:cNvPr id="25" name="文字方塊 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -18317,7 +18436,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="27" name="文字方塊 18"/>
+          <xdr:cNvPr id="27" name="文字方塊 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -18481,7 +18606,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18511,7 +18642,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="圖表 4"/>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18541,7 +18678,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="圖表 5"/>
+        <xdr:cNvPr id="6" name="圖表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18571,7 +18714,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="圖表 6"/>
+        <xdr:cNvPr id="7" name="圖表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18601,7 +18750,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="圖表 7"/>
+        <xdr:cNvPr id="8" name="圖表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18631,7 +18786,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="圖表 8"/>
+        <xdr:cNvPr id="9" name="圖表 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18661,7 +18822,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="圖表 9"/>
+        <xdr:cNvPr id="10" name="圖表 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18691,7 +18858,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -18729,7 +18902,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="17" name="群組 16"/>
+        <xdr:cNvPr id="17" name="群組 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -18742,7 +18921,13 @@
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="11" name="圖表 10"/>
+          <xdr:cNvPr id="11" name="圖表 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGraphicFramePr/>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
@@ -18757,7 +18942,13 @@
       </xdr:graphicFrame>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="文字方塊 11"/>
+          <xdr:cNvPr id="12" name="文字方塊 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -18809,7 +19000,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="文字方塊 12"/>
+          <xdr:cNvPr id="13" name="文字方塊 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -18861,7 +19058,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="文字方塊 13"/>
+          <xdr:cNvPr id="14" name="文字方塊 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -18929,7 +19132,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18959,7 +19168,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="文字方塊 14"/>
+        <xdr:cNvPr id="15" name="文字方塊 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19026,7 +19241,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="文字方塊 15"/>
+        <xdr:cNvPr id="16" name="文字方塊 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19356,10 +19577,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -19989,11 +20210,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB46" sqref="AB46"/>
+    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22151,63 +22372,63 @@
     <row r="20" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L20" s="26"/>
       <c r="M20" s="27">
-        <f>SUMPRODUCT(M3:M18,$AB$3:$AB$18)/8</f>
+        <f t="shared" ref="M20:AA20" si="20">SUMPRODUCT(M3:M18,$AB$3:$AB$18)/8</f>
         <v>5.1634132609253989</v>
       </c>
       <c r="N20" s="27">
-        <f>SUMPRODUCT(N3:N18,$AB$3:$AB$18)/8</f>
+        <f t="shared" si="20"/>
         <v>8.0283338580530383</v>
       </c>
       <c r="O20" s="27">
-        <f>SUMPRODUCT(O3:O18,$AB$3:$AB$18)/8</f>
+        <f t="shared" si="20"/>
         <v>-3.9046644456128949</v>
       </c>
       <c r="P20" s="27">
-        <f>SUMPRODUCT(P3:P18,$AB$3:$AB$18)/8</f>
+        <f t="shared" si="20"/>
         <v>6.0046207049365847</v>
       </c>
       <c r="Q20" s="27">
-        <f>SUMPRODUCT(Q3:Q18,$AB$3:$AB$18)/8</f>
+        <f t="shared" si="20"/>
         <v>-4.2797869595714246</v>
       </c>
       <c r="R20" s="27">
-        <f>SUMPRODUCT(R3:R18,$AB$3:$AB$18)/8</f>
+        <f t="shared" si="20"/>
         <v>8.8484347444410414</v>
       </c>
       <c r="S20" s="27">
-        <f>SUMPRODUCT(S3:S18,$AB$3:$AB$18)/8</f>
+        <f t="shared" si="20"/>
         <v>-11.175145023916301</v>
       </c>
       <c r="T20" s="27">
-        <f>SUMPRODUCT(T3:T18,$AB$3:$AB$18)/8</f>
+        <f t="shared" si="20"/>
         <v>3.505968400020552</v>
       </c>
       <c r="U20" s="27">
-        <f>SUMPRODUCT(U3:U18,$AB$3:$AB$18)/8</f>
+        <f t="shared" si="20"/>
         <v>0.94557012742281255</v>
       </c>
       <c r="V20" s="27">
-        <f>SUMPRODUCT(V3:V18,$AB$3:$AB$18)/8</f>
+        <f t="shared" si="20"/>
         <v>-1.2688340874221198</v>
       </c>
       <c r="W20" s="27">
-        <f>SUMPRODUCT(W3:W18,$AB$3:$AB$18)/8</f>
+        <f t="shared" si="20"/>
         <v>3.3591627205257928</v>
       </c>
       <c r="X20" s="27">
-        <f>SUMPRODUCT(X3:X18,$AB$3:$AB$18)/8</f>
+        <f t="shared" si="20"/>
         <v>5.1524947239258925</v>
       </c>
       <c r="Y20" s="27">
-        <f>SUMPRODUCT(Y3:Y18,$AB$3:$AB$18)/8</f>
+        <f t="shared" si="20"/>
         <v>-1.9376057938671765</v>
       </c>
       <c r="Z20" s="27">
-        <f>SUMPRODUCT(Z3:Z18,$AB$3:$AB$18)/8</f>
+        <f t="shared" si="20"/>
         <v>-1.0102392334310841</v>
       </c>
       <c r="AA20" s="27">
-        <f>SUMPRODUCT(AA3:AA18,$AB$3:$AB$18)/8</f>
+        <f t="shared" si="20"/>
         <v>8.2087871690129148</v>
       </c>
       <c r="AB20" s="18">
@@ -22271,63 +22492,63 @@
         <v>5.9910543475853233</v>
       </c>
       <c r="M22" s="27">
-        <f t="shared" ref="M22:AA22" si="20">M20/2</f>
+        <f t="shared" ref="M22:AA22" si="21">M20/2</f>
         <v>2.5817066304626994</v>
       </c>
       <c r="N22" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.0141669290265192</v>
       </c>
       <c r="O22" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-1.9523322228064475</v>
       </c>
       <c r="P22" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.0023103524682924</v>
       </c>
       <c r="Q22" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-2.1398934797857123</v>
       </c>
       <c r="R22" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.4242173722205207</v>
       </c>
       <c r="S22" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-5.5875725119581503</v>
       </c>
       <c r="T22" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.752984200010276</v>
       </c>
       <c r="U22" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.47278506371140627</v>
       </c>
       <c r="V22" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.63441704371105989</v>
       </c>
       <c r="W22" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.6795813602628964</v>
       </c>
       <c r="X22" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.5762473619629462</v>
       </c>
       <c r="Y22" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.96880289693358823</v>
       </c>
       <c r="Z22" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.50511961671554206</v>
       </c>
       <c r="AA22" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.1043935845064574</v>
       </c>
     </row>
@@ -22385,56 +22606,56 @@
         <v>2</v>
       </c>
       <c r="B26" s="9">
-        <f t="shared" ref="B26:B33" si="21">INDEX($A$2:$J$18,A26+1,10)</f>
+        <f t="shared" ref="B26:B33" si="22">INDEX($A$2:$J$18,A26+1,10)</f>
         <v>8.0909686163949601</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" ref="D26:D33" si="22">INDEX($A$2:$J$18,C26+1,10)</f>
+        <f t="shared" ref="D26:D33" si="23">INDEX($A$2:$J$18,C26+1,10)</f>
         <v>-2.0442063651487121</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
       </c>
       <c r="F26" s="9">
-        <f t="shared" ref="F26:F33" si="23">INDEX($A$2:$J$18,E26+1,10)</f>
+        <f t="shared" ref="F26:F33" si="24">INDEX($A$2:$J$18,E26+1,10)</f>
         <v>5.1050069670400724</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
       </c>
       <c r="H26" s="9">
-        <f t="shared" ref="H26:H33" si="24">INDEX($A$2:$J$18,G26+1,10)</f>
+        <f t="shared" ref="H26:H33" si="25">INDEX($A$2:$J$18,G26+1,10)</f>
         <v>-2.0442063651487121</v>
       </c>
       <c r="I26" s="1">
         <v>5</v>
       </c>
       <c r="J26" s="9">
-        <f t="shared" ref="J26:J33" si="25">INDEX($A$2:$J$18,I26+1,10)</f>
+        <f t="shared" ref="J26:J33" si="26">INDEX($A$2:$J$18,I26+1,10)</f>
         <v>-24.831909343586464</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
       </c>
       <c r="L26" s="9">
-        <f t="shared" ref="L26:L33" si="26">INDEX($A$2:$J$18,K26+1,10)</f>
+        <f t="shared" ref="L26:L33" si="27">INDEX($A$2:$J$18,K26+1,10)</f>
         <v>-2.0442063651487121</v>
       </c>
       <c r="M26" s="1">
         <v>9</v>
       </c>
       <c r="N26" s="9">
-        <f t="shared" ref="N26:N33" si="27">INDEX($A$2:$J$18,M26+1,10)</f>
+        <f t="shared" ref="N26:N33" si="28">INDEX($A$2:$J$18,M26+1,10)</f>
         <v>9.4546858513181977</v>
       </c>
       <c r="O26" s="1">
         <v>1</v>
       </c>
       <c r="P26" s="9">
-        <f t="shared" ref="P26:P33" si="28">INDEX($A$2:$J$18,O26+1,10)</f>
+        <f t="shared" ref="P26:P33" si="29">INDEX($A$2:$J$18,O26+1,10)</f>
         <v>-2.0442063651487121</v>
       </c>
       <c r="T26" s="107">
@@ -22463,56 +22684,56 @@
         <v>4</v>
       </c>
       <c r="B27" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6.0748674785633527</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
       </c>
       <c r="D27" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5.1050069670400724</v>
       </c>
       <c r="E27" s="1">
         <v>4</v>
       </c>
       <c r="F27" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6.0748674785633527</v>
       </c>
       <c r="G27" s="1">
         <v>2</v>
       </c>
       <c r="H27" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.0909686163949601</v>
       </c>
       <c r="I27" s="1">
         <v>6</v>
       </c>
       <c r="J27" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>16.574595611547892</v>
       </c>
       <c r="K27" s="1">
         <v>2</v>
       </c>
       <c r="L27" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>8.0909686163949601</v>
       </c>
       <c r="M27" s="1">
         <v>10</v>
       </c>
       <c r="N27" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.2273672629376673</v>
       </c>
       <c r="O27" s="1">
         <v>2</v>
       </c>
       <c r="P27" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8.0909686163949601</v>
       </c>
       <c r="T27" s="18" t="s">
@@ -22528,56 +22749,56 @@
         <v>6</v>
       </c>
       <c r="B28" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>16.574595611547892</v>
       </c>
       <c r="C28" s="1">
         <v>5</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-24.831909343586464</v>
       </c>
       <c r="E28" s="1">
         <v>7</v>
       </c>
       <c r="F28" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0489681524798404</v>
       </c>
       <c r="G28" s="1">
         <v>5</v>
       </c>
       <c r="H28" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-24.831909343586464</v>
       </c>
       <c r="I28" s="1">
         <v>7</v>
       </c>
       <c r="J28" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.0489681524798404</v>
       </c>
       <c r="K28" s="1">
         <v>3</v>
       </c>
       <c r="L28" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.1050069670400724</v>
       </c>
       <c r="M28" s="1">
         <v>11</v>
       </c>
       <c r="N28" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>26.628102795388816</v>
       </c>
       <c r="O28" s="1">
         <v>3</v>
       </c>
       <c r="P28" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.1050069670400724</v>
       </c>
       <c r="T28" s="18" t="s">
@@ -22593,56 +22814,56 @@
         <v>8</v>
       </c>
       <c r="B29" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>13.89166084364531</v>
       </c>
       <c r="C29" s="1">
         <v>7</v>
       </c>
       <c r="D29" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0489681524798404</v>
       </c>
       <c r="E29" s="1">
         <v>8</v>
       </c>
       <c r="F29" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>13.89166084364531</v>
       </c>
       <c r="G29" s="1">
         <v>6</v>
       </c>
       <c r="H29" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>16.574595611547892</v>
       </c>
       <c r="I29" s="1">
         <v>8</v>
       </c>
       <c r="J29" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>13.89166084364531</v>
       </c>
       <c r="K29" s="1">
         <v>4</v>
       </c>
       <c r="L29" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.0748674785633527</v>
       </c>
       <c r="M29" s="1">
         <v>12</v>
       </c>
       <c r="N29" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.010299956639813</v>
       </c>
       <c r="O29" s="1">
         <v>4</v>
       </c>
       <c r="P29" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>6.0748674785633527</v>
       </c>
     </row>
@@ -22651,56 +22872,56 @@
         <v>10</v>
       </c>
       <c r="B30" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.2273672629376673</v>
       </c>
       <c r="C30" s="1">
         <v>9</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9.4546858513181977</v>
       </c>
       <c r="E30" s="1">
         <v>11</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>26.628102795388816</v>
       </c>
       <c r="G30" s="1">
         <v>9</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.4546858513181977</v>
       </c>
       <c r="I30" s="1">
         <v>13</v>
       </c>
       <c r="J30" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.4425790906585583</v>
       </c>
       <c r="K30" s="1">
         <v>9</v>
       </c>
       <c r="L30" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.4546858513181977</v>
       </c>
       <c r="M30" s="1">
         <v>13</v>
       </c>
       <c r="N30" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6.4425790906585583</v>
       </c>
       <c r="O30" s="1">
         <v>5</v>
       </c>
       <c r="P30" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-24.831909343586464</v>
       </c>
       <c r="T30" s="18" t="s">
@@ -22739,56 +22960,56 @@
         <v>12</v>
       </c>
       <c r="B31" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.010299956639813</v>
       </c>
       <c r="C31" s="1">
         <v>11</v>
       </c>
       <c r="D31" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>26.628102795388816</v>
       </c>
       <c r="E31" s="1">
         <v>12</v>
       </c>
       <c r="F31" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.010299956639813</v>
       </c>
       <c r="G31" s="1">
         <v>10</v>
       </c>
       <c r="H31" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.2273672629376673</v>
       </c>
       <c r="I31" s="1">
         <v>14</v>
       </c>
       <c r="J31" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-5.0989813756516558</v>
       </c>
       <c r="K31" s="1">
         <v>10</v>
       </c>
       <c r="L31" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.2273672629376673</v>
       </c>
       <c r="M31" s="1">
         <v>14</v>
       </c>
       <c r="N31" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-5.0989813756516558</v>
       </c>
       <c r="O31" s="1">
         <v>6</v>
       </c>
       <c r="P31" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>16.574595611547892</v>
       </c>
       <c r="T31" s="18">
@@ -22835,56 +23056,56 @@
         <v>14</v>
       </c>
       <c r="B32" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-5.0989813756516558</v>
       </c>
       <c r="C32" s="1">
         <v>13</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.4425790906585583</v>
       </c>
       <c r="E32" s="1">
         <v>15</v>
       </c>
       <c r="F32" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.4715545888307009</v>
       </c>
       <c r="G32" s="1">
         <v>13</v>
       </c>
       <c r="H32" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.4425790906585583</v>
       </c>
       <c r="I32" s="1">
         <v>15</v>
       </c>
       <c r="J32" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.4715545888307009</v>
       </c>
       <c r="K32" s="1">
         <v>11</v>
       </c>
       <c r="L32" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>26.628102795388816</v>
       </c>
       <c r="M32" s="1">
         <v>15</v>
       </c>
       <c r="N32" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.4715545888307009</v>
       </c>
       <c r="O32" s="1">
         <v>7</v>
       </c>
       <c r="P32" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.0489681524798404</v>
       </c>
       <c r="T32" s="18" t="s">
@@ -22905,56 +23126,56 @@
         <v>16</v>
       </c>
       <c r="B33" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>18.811309430306839</v>
       </c>
       <c r="C33" s="1">
         <v>15</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5.4715545888307009</v>
       </c>
       <c r="E33" s="1">
         <v>16</v>
       </c>
       <c r="F33" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>18.811309430306839</v>
       </c>
       <c r="G33" s="1">
         <v>14</v>
       </c>
       <c r="H33" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-5.0989813756516558</v>
       </c>
       <c r="I33" s="1">
         <v>16</v>
       </c>
       <c r="J33" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>18.811309430306839</v>
       </c>
       <c r="K33" s="1">
         <v>12</v>
       </c>
       <c r="L33" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3.010299956639813</v>
       </c>
       <c r="M33" s="1">
         <v>16</v>
       </c>
       <c r="N33" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>18.811309430306839</v>
       </c>
       <c r="O33" s="1">
         <v>8</v>
       </c>
       <c r="P33" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>13.89166084364531</v>
       </c>
       <c r="R33" s="18" t="s">
@@ -23092,63 +23313,63 @@
         <v>348</v>
       </c>
       <c r="U36" s="142">
-        <f>M20</f>
+        <f t="shared" ref="U36:AI36" si="30">M20</f>
         <v>5.1634132609253989</v>
       </c>
       <c r="V36" s="142">
-        <f>N20</f>
+        <f t="shared" si="30"/>
         <v>8.0283338580530383</v>
       </c>
       <c r="W36" s="142">
-        <f>O20</f>
+        <f t="shared" si="30"/>
         <v>-3.9046644456128949</v>
       </c>
       <c r="X36" s="142">
-        <f>P20</f>
+        <f t="shared" si="30"/>
         <v>6.0046207049365847</v>
       </c>
       <c r="Y36" s="142">
-        <f>Q20</f>
+        <f t="shared" si="30"/>
         <v>-4.2797869595714246</v>
       </c>
       <c r="Z36" s="142">
-        <f>R20</f>
+        <f t="shared" si="30"/>
         <v>8.8484347444410414</v>
       </c>
       <c r="AA36" s="142">
-        <f>S20</f>
+        <f t="shared" si="30"/>
         <v>-11.175145023916301</v>
       </c>
       <c r="AB36" s="142">
-        <f>T20</f>
+        <f t="shared" si="30"/>
         <v>3.505968400020552</v>
       </c>
       <c r="AC36" s="142">
-        <f>U20</f>
+        <f t="shared" si="30"/>
         <v>0.94557012742281255</v>
       </c>
       <c r="AD36" s="142">
-        <f>V20</f>
+        <f t="shared" si="30"/>
         <v>-1.2688340874221198</v>
       </c>
       <c r="AE36" s="142">
-        <f>W20</f>
+        <f t="shared" si="30"/>
         <v>3.3591627205257928</v>
       </c>
       <c r="AF36" s="142">
-        <f>X20</f>
+        <f t="shared" si="30"/>
         <v>5.1524947239258925</v>
       </c>
       <c r="AG36" s="142">
-        <f>Y20</f>
+        <f t="shared" si="30"/>
         <v>-1.9376057938671765</v>
       </c>
       <c r="AH36" s="142">
-        <f>Z20</f>
+        <f t="shared" si="30"/>
         <v>-1.0102392334310841</v>
       </c>
       <c r="AI36" s="142">
-        <f>AA20</f>
+        <f t="shared" si="30"/>
         <v>8.2087871690129148</v>
       </c>
       <c r="AJ36" s="142"/>
@@ -23178,59 +23399,59 @@
         <v>24.075089106564779</v>
       </c>
       <c r="V37" s="142">
-        <f t="shared" ref="V37:AI37" si="29">V36+$U$28</f>
+        <f t="shared" ref="V37:AI37" si="31">V36+$U$28</f>
         <v>26.940009703692418</v>
       </c>
       <c r="W37" s="142">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>15.007011400026485</v>
       </c>
       <c r="X37" s="142">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>24.916296550575964</v>
       </c>
       <c r="Y37" s="142">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>14.631888886067955</v>
       </c>
       <c r="Z37" s="142">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>27.760110590080423</v>
       </c>
       <c r="AA37" s="142">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>7.736530821723079</v>
       </c>
       <c r="AB37" s="142">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>22.417644245659933</v>
       </c>
       <c r="AC37" s="142">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>19.857245973062192</v>
       </c>
       <c r="AD37" s="142">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>17.642841758217259</v>
       </c>
       <c r="AE37" s="142">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>22.270838566165171</v>
       </c>
       <c r="AF37" s="142">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>24.06417056956527</v>
       </c>
       <c r="AG37" s="142">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>16.974070051772202</v>
       </c>
       <c r="AH37" s="142">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>17.901436612208297</v>
       </c>
       <c r="AI37" s="142">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>27.120463014652294</v>
       </c>
     </row>
@@ -23250,59 +23471,59 @@
         <v>-13.748262584713981</v>
       </c>
       <c r="V38" s="142">
-        <f t="shared" ref="V38:AI38" si="30">V36-$U$28</f>
+        <f t="shared" ref="V38:AI38" si="32">V36-$U$28</f>
         <v>-10.883341987586341</v>
       </c>
       <c r="W38" s="142">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-22.816340291252274</v>
       </c>
       <c r="X38" s="142">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-12.907055140702795</v>
       </c>
       <c r="Y38" s="142">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-23.191462805210804</v>
       </c>
       <c r="Z38" s="142">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-10.063241101198338</v>
       </c>
       <c r="AA38" s="142">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-30.08682086955568</v>
       </c>
       <c r="AB38" s="142">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-15.405707445618827</v>
       </c>
       <c r="AC38" s="142">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-17.966105718216568</v>
       </c>
       <c r="AD38" s="142">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-20.180509933061501</v>
       </c>
       <c r="AE38" s="142">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-15.552513125113586</v>
       </c>
       <c r="AF38" s="142">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-13.759181121713487</v>
       </c>
       <c r="AG38" s="142">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-20.849281639506557</v>
       </c>
       <c r="AH38" s="142">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-19.921915079070462</v>
       </c>
       <c r="AI38" s="142">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-10.702888676626465</v>
       </c>
     </row>
@@ -23322,59 +23543,59 @@
         <v>1.1008871303193848</v>
       </c>
       <c r="V39" s="18">
-        <f t="shared" ref="V39:AI39" si="31">(V36-0)/$W$25</f>
+        <f t="shared" ref="V39:AI39" si="33">(V36-0)/$W$25</f>
         <v>1.7117145143354158</v>
       </c>
       <c r="W39" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>-0.83251032198428121</v>
       </c>
       <c r="X39" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.2802402834068844</v>
       </c>
       <c r="Y39" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>-0.91248988725269942</v>
       </c>
       <c r="Z39" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.8865675554856147</v>
       </c>
       <c r="AA39" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>-2.3826435566145778</v>
       </c>
       <c r="AB39" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.7475046632617065</v>
       </c>
       <c r="AC39" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.20160423570428504</v>
       </c>
       <c r="AD39" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>-0.27052708097651035</v>
       </c>
       <c r="AE39" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.71620434406459321</v>
       </c>
       <c r="AF39" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.0985591979503768</v>
       </c>
       <c r="AG39" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>-0.41311535108819719</v>
       </c>
       <c r="AH39" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>-0.21539228305515826</v>
       </c>
       <c r="AI39" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.750188817595745</v>
       </c>
     </row>
@@ -23394,59 +23615,59 @@
         <v>0.32109943719317791</v>
       </c>
       <c r="V40" s="18">
-        <f t="shared" ref="V40:AI40" si="32">IF(V39&gt;0,(1-_xlfn.T.DIST(V39,5,1))*2,_xlfn.T.DIST(V39,5,1))</f>
+        <f t="shared" ref="V40:AI40" si="34">IF(V39&gt;0,(1-_xlfn.T.DIST(V39,5,1))*2,_xlfn.T.DIST(V39,5,1))</f>
         <v>0.14763041955522649</v>
       </c>
       <c r="W40" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.22152750753151318</v>
       </c>
       <c r="X40" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.25663605994442973</v>
       </c>
       <c r="Y40" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.20168127235954786</v>
       </c>
       <c r="Z40" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.11787835344937903</v>
       </c>
       <c r="AA40" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3.1479235670291206E-2</v>
       </c>
       <c r="AB40" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.48840155582216971</v>
       </c>
       <c r="AC40" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.84817155390451915</v>
       </c>
       <c r="AD40" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.39878328953042541</v>
       </c>
       <c r="AE40" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.50591298515677185</v>
       </c>
       <c r="AF40" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.32202221522421293</v>
       </c>
       <c r="AG40" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.34832073153291743</v>
       </c>
       <c r="AH40" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.41898596565236185</v>
       </c>
       <c r="AI40" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.14048817255859802</v>
       </c>
     </row>
@@ -23537,57 +23758,57 @@
     <row r="48" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I49" s="144"/>
-      <c r="J49" s="146" t="s">
+      <c r="J49" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="K49" s="146"/>
-      <c r="L49" s="146"/>
+      <c r="K49" s="145"/>
+      <c r="L49" s="145"/>
       <c r="M49" s="144"/>
-      <c r="N49" s="146" t="s">
+      <c r="N49" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="O49" s="146"/>
-      <c r="P49" s="146"/>
+      <c r="O49" s="145"/>
+      <c r="P49" s="145"/>
       <c r="Q49" s="144"/>
-      <c r="R49" s="146" t="s">
+      <c r="R49" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="S49" s="146"/>
-      <c r="T49" s="159"/>
+      <c r="S49" s="145"/>
+      <c r="T49" s="146"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I50" s="145"/>
-      <c r="J50" s="147"/>
-      <c r="K50" s="150" t="s">
+      <c r="I50" s="161"/>
+      <c r="J50" s="155"/>
+      <c r="K50" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="L50" s="151"/>
-      <c r="M50" s="145"/>
-      <c r="N50" s="147"/>
-      <c r="O50" s="150" t="s">
+      <c r="L50" s="157"/>
+      <c r="M50" s="161"/>
+      <c r="N50" s="155"/>
+      <c r="O50" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="P50" s="154"/>
-      <c r="Q50" s="145"/>
-      <c r="R50" s="147"/>
-      <c r="S50" s="150" t="s">
+      <c r="P50" s="162"/>
+      <c r="Q50" s="161"/>
+      <c r="R50" s="155"/>
+      <c r="S50" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="T50" s="151"/>
+      <c r="T50" s="157"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I51" s="145"/>
-      <c r="J51" s="147"/>
-      <c r="K51" s="152"/>
-      <c r="L51" s="153"/>
-      <c r="M51" s="145"/>
-      <c r="N51" s="147"/>
-      <c r="O51" s="152"/>
-      <c r="P51" s="155"/>
-      <c r="Q51" s="145"/>
-      <c r="R51" s="147"/>
-      <c r="S51" s="152"/>
-      <c r="T51" s="153"/>
+      <c r="I51" s="161"/>
+      <c r="J51" s="155"/>
+      <c r="K51" s="158"/>
+      <c r="L51" s="159"/>
+      <c r="M51" s="161"/>
+      <c r="N51" s="155"/>
+      <c r="O51" s="158"/>
+      <c r="P51" s="163"/>
+      <c r="Q51" s="161"/>
+      <c r="R51" s="155"/>
+      <c r="S51" s="158"/>
+      <c r="T51" s="159"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I52" s="1" t="s">
@@ -23596,24 +23817,24 @@
       <c r="J52" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K52" s="148"/>
-      <c r="L52" s="149"/>
+      <c r="K52" s="150"/>
+      <c r="L52" s="160"/>
       <c r="M52" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O52" s="148"/>
-      <c r="P52" s="149"/>
+      <c r="O52" s="150"/>
+      <c r="P52" s="160"/>
       <c r="Q52" s="1" t="s">
         <v>26</v>
       </c>
       <c r="R52" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S52" s="148"/>
-      <c r="T52" s="156"/>
+      <c r="S52" s="150"/>
+      <c r="T52" s="151"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I53" s="1" t="s">
@@ -23622,33 +23843,33 @@
       <c r="J53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K53" s="148">
+      <c r="K53" s="150">
         <f>D34-K57</f>
         <v>-2.5817066304626985</v>
       </c>
-      <c r="L53" s="149"/>
+      <c r="L53" s="160"/>
       <c r="M53" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O53" s="148">
+      <c r="O53" s="150">
         <f>B34-O57</f>
         <v>2.5817066304626968</v>
       </c>
-      <c r="P53" s="149"/>
+      <c r="P53" s="160"/>
       <c r="Q53" s="1" t="s">
         <v>23</v>
       </c>
       <c r="R53" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="S53" s="148">
+      <c r="S53" s="150">
         <f>O53</f>
         <v>2.5817066304626968</v>
       </c>
-      <c r="T53" s="156"/>
+      <c r="T53" s="151"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I54" s="1" t="s">
@@ -23657,33 +23878,33 @@
       <c r="J54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K54" s="148">
+      <c r="K54" s="150">
         <f>H34-K57</f>
         <v>-4.0141669290265201</v>
       </c>
-      <c r="L54" s="149"/>
+      <c r="L54" s="160"/>
       <c r="M54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O54" s="148">
+      <c r="O54" s="150">
         <f>F34-O57</f>
         <v>4.0141669290265165</v>
       </c>
-      <c r="P54" s="149"/>
+      <c r="P54" s="160"/>
       <c r="Q54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="R54" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="S54" s="148">
+      <c r="S54" s="150">
         <f>O54</f>
         <v>4.0141669290265165</v>
       </c>
-      <c r="T54" s="156"/>
+      <c r="T54" s="151"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I55" s="1" t="s">
@@ -23692,33 +23913,33 @@
       <c r="J55" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K55" s="148">
+      <c r="K55" s="150">
         <f>L34-K57</f>
         <v>1.9523322228064464</v>
       </c>
-      <c r="L55" s="149"/>
+      <c r="L55" s="160"/>
       <c r="M55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O55" s="148">
+      <c r="O55" s="150">
         <f>J34-O57</f>
         <v>-1.9523322228064472</v>
       </c>
-      <c r="P55" s="149"/>
+      <c r="P55" s="160"/>
       <c r="Q55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="R55" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="S55" s="148">
+      <c r="S55" s="150">
         <f>K55</f>
         <v>1.9523322228064464</v>
       </c>
-      <c r="T55" s="156"/>
+      <c r="T55" s="151"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I56" s="1" t="s">
@@ -23727,106 +23948,106 @@
       <c r="J56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K56" s="148">
+      <c r="K56" s="150">
         <f>P34-K57</f>
         <v>-3.0023103524682933</v>
       </c>
-      <c r="L56" s="149"/>
+      <c r="L56" s="160"/>
       <c r="M56" s="1" t="s">
         <v>9</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O56" s="148">
+      <c r="O56" s="150">
         <f>N34-O57</f>
         <v>3.0023103524682915</v>
       </c>
-      <c r="P56" s="149"/>
+      <c r="P56" s="160"/>
       <c r="Q56" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R56" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="S56" s="148">
+      <c r="S56" s="150">
         <f>O56</f>
         <v>3.0023103524682915</v>
       </c>
-      <c r="T56" s="156"/>
+      <c r="T56" s="151"/>
     </row>
     <row r="57" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I57" s="3" t="s">
         <v>28</v>
       </c>
       <c r="J57" s="4"/>
-      <c r="K57" s="148">
+      <c r="K57" s="150">
         <f>R34</f>
         <v>5.9910543475853251</v>
       </c>
-      <c r="L57" s="149"/>
+      <c r="L57" s="160"/>
       <c r="M57" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N57" s="4"/>
-      <c r="O57" s="148">
+      <c r="O57" s="150">
         <f>R34</f>
         <v>5.9910543475853251</v>
       </c>
-      <c r="P57" s="149"/>
+      <c r="P57" s="160"/>
       <c r="Q57" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R57" s="4"/>
-      <c r="S57" s="148">
+      <c r="S57" s="150">
         <f>R34</f>
         <v>5.9910543475853251</v>
       </c>
-      <c r="T57" s="156"/>
+      <c r="T57" s="151"/>
     </row>
     <row r="58" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I58" s="3" t="s">
         <v>29</v>
       </c>
       <c r="J58" s="4"/>
-      <c r="K58" s="157">
+      <c r="K58" s="152">
         <f>SUM(K53:L57)</f>
         <v>-1.6547973415657404</v>
       </c>
-      <c r="L58" s="158"/>
+      <c r="L58" s="154"/>
       <c r="M58" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N58" s="4"/>
-      <c r="O58" s="157">
+      <c r="O58" s="152">
         <f>SUM(O53:P57)</f>
         <v>13.636906036736383</v>
       </c>
-      <c r="P58" s="158"/>
+      <c r="P58" s="154"/>
       <c r="Q58" s="3" t="s">
         <v>29</v>
       </c>
       <c r="R58" s="4"/>
-      <c r="S58" s="157">
+      <c r="S58" s="152">
         <f>SUM(S53:T57)</f>
         <v>17.541570482349279</v>
       </c>
-      <c r="T58" s="163"/>
+      <c r="T58" s="153"/>
     </row>
     <row r="61" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="146"/>
-      <c r="C62" s="146"/>
-      <c r="D62" s="146"/>
-      <c r="E62" s="146"/>
-      <c r="F62" s="146"/>
-      <c r="G62" s="146"/>
-      <c r="H62" s="146"/>
-      <c r="I62" s="146"/>
-      <c r="J62" s="159"/>
+      <c r="B62" s="145"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="145"/>
+      <c r="G62" s="145"/>
+      <c r="H62" s="145"/>
+      <c r="I62" s="145"/>
+      <c r="J62" s="146"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -23883,15 +24104,15 @@
         <v>-0.03</v>
       </c>
       <c r="H64" s="87">
-        <f t="shared" ref="H64" si="33">AVERAGE(F64:G64)</f>
+        <f t="shared" ref="H64" si="35">AVERAGE(F64:G64)</f>
         <v>-0.02</v>
       </c>
       <c r="I64" s="87">
-        <f t="shared" ref="I64" si="34">_xlfn.VAR.S(F64:G64)</f>
+        <f t="shared" ref="I64" si="36">_xlfn.VAR.S(F64:G64)</f>
         <v>1.9999999999999998E-4</v>
       </c>
       <c r="J64" s="88">
-        <f t="shared" ref="J64" si="35">-10*LOG(F64*F64+G64*G64)</f>
+        <f t="shared" ref="J64" si="37">-10*LOG(F64*F64+G64*G64)</f>
         <v>30</v>
       </c>
     </row>
@@ -23974,47 +24195,47 @@
         <v>-1</v>
       </c>
       <c r="W67" s="2">
-        <f t="shared" ref="W67:W82" si="36">S67*T67</f>
+        <f t="shared" ref="W67:W82" si="38">S67*T67</f>
         <v>1</v>
       </c>
       <c r="X67" s="2">
-        <f t="shared" ref="X67:X82" si="37">S67*U67</f>
+        <f t="shared" ref="X67:X82" si="39">S67*U67</f>
         <v>1</v>
       </c>
       <c r="Y67" s="2">
-        <f t="shared" ref="Y67:Y82" si="38">S67*V67</f>
+        <f t="shared" ref="Y67:Y82" si="40">S67*V67</f>
         <v>1</v>
       </c>
       <c r="Z67" s="2">
-        <f t="shared" ref="Z67:Z82" si="39">T67*U67</f>
+        <f t="shared" ref="Z67:Z82" si="41">T67*U67</f>
         <v>1</v>
       </c>
       <c r="AA67" s="2">
-        <f t="shared" ref="AA67:AA82" si="40">T67*V67</f>
+        <f t="shared" ref="AA67:AA82" si="42">T67*V67</f>
         <v>1</v>
       </c>
       <c r="AB67" s="2">
-        <f t="shared" ref="AB67:AB82" si="41">U67*V67</f>
+        <f t="shared" ref="AB67:AB82" si="43">U67*V67</f>
         <v>1</v>
       </c>
       <c r="AC67" s="2">
-        <f t="shared" ref="AC67:AC82" si="42">S67*T67*U67</f>
+        <f t="shared" ref="AC67:AC82" si="44">S67*T67*U67</f>
         <v>-1</v>
       </c>
       <c r="AD67" s="2">
-        <f t="shared" ref="AD67:AD82" si="43">S67*T67*V67</f>
+        <f t="shared" ref="AD67:AD82" si="45">S67*T67*V67</f>
         <v>-1</v>
       </c>
       <c r="AE67" s="2">
-        <f t="shared" ref="AE67:AE82" si="44">S67*U67*V67</f>
+        <f t="shared" ref="AE67:AE82" si="46">S67*U67*V67</f>
         <v>-1</v>
       </c>
       <c r="AF67" s="2">
-        <f t="shared" ref="AF67:AF82" si="45">T67*U67*V67</f>
+        <f t="shared" ref="AF67:AF82" si="47">T67*U67*V67</f>
         <v>-1</v>
       </c>
       <c r="AG67" s="2">
-        <f t="shared" ref="AG67:AG82" si="46">S67*T67*U67*V67</f>
+        <f t="shared" ref="AG67:AG82" si="48">S67*T67*U67*V67</f>
         <v>1</v>
       </c>
       <c r="AH67" s="18">
@@ -24075,51 +24296,51 @@
         <v>-1</v>
       </c>
       <c r="W68" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-1</v>
       </c>
       <c r="X68" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1</v>
       </c>
       <c r="Y68" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-1</v>
       </c>
       <c r="Z68" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="AA68" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="AB68" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="AC68" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="AD68" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="AE68" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="AF68" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-1</v>
       </c>
       <c r="AG68" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-1</v>
       </c>
       <c r="AH68" s="18">
-        <f t="shared" ref="AH68:AH82" si="47">K4</f>
+        <f t="shared" ref="AH68:AH82" si="49">K4</f>
         <v>-3.2471447656066834</v>
       </c>
     </row>
@@ -24168,7 +24389,7 @@
         <v>-2.0442063651487121</v>
       </c>
       <c r="O69" s="18">
-        <f t="shared" ref="O69:O84" si="48">B69*C69*L69</f>
+        <f t="shared" ref="O69:O84" si="50">B69*C69*L69</f>
         <v>-2.0442063651487121</v>
       </c>
       <c r="R69" s="32">
@@ -24187,51 +24408,51 @@
         <v>-1</v>
       </c>
       <c r="W69" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-1</v>
       </c>
       <c r="X69" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="Y69" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="Z69" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-1</v>
       </c>
       <c r="AA69" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-1</v>
       </c>
       <c r="AB69" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="AC69" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="AD69" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="AE69" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>-1</v>
       </c>
       <c r="AF69" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="AG69" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-1</v>
       </c>
       <c r="AH69" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>10.433514207947967</v>
       </c>
     </row>
@@ -24252,35 +24473,35 @@
         <v>-1</v>
       </c>
       <c r="F70" s="2">
-        <f t="shared" ref="F70:F84" si="49">B70*C70</f>
+        <f t="shared" ref="F70:F84" si="51">B70*C70</f>
         <v>-1</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" ref="G70:G84" si="50">B70*D70</f>
+        <f t="shared" ref="G70:G84" si="52">B70*D70</f>
         <v>-1</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" ref="H70:H84" si="51">B70*E70</f>
+        <f t="shared" ref="H70:H84" si="53">B70*E70</f>
         <v>-1</v>
       </c>
       <c r="I70" s="2">
-        <f t="shared" ref="I70:I84" si="52">C70*D70</f>
+        <f t="shared" ref="I70:I84" si="54">C70*D70</f>
         <v>1</v>
       </c>
       <c r="J70" s="2">
-        <f t="shared" ref="J70:J84" si="53">C70*E70</f>
+        <f t="shared" ref="J70:J84" si="55">C70*E70</f>
         <v>1</v>
       </c>
       <c r="K70" s="2">
-        <f t="shared" ref="K70:K84" si="54">D70*E70</f>
+        <f t="shared" ref="K70:K84" si="56">D70*E70</f>
         <v>1</v>
       </c>
       <c r="L70" s="37">
-        <f t="shared" ref="L70:L84" si="55">J4</f>
+        <f t="shared" ref="L70:L84" si="57">J4</f>
         <v>8.0909686163949601</v>
       </c>
       <c r="O70" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-8.0909686163949601</v>
       </c>
       <c r="R70" s="32">
@@ -24299,51 +24520,51 @@
         <v>-1</v>
       </c>
       <c r="W70" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="X70" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1</v>
       </c>
       <c r="Y70" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-1</v>
       </c>
       <c r="Z70" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-1</v>
       </c>
       <c r="AA70" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-1</v>
       </c>
       <c r="AB70" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="AC70" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-1</v>
       </c>
       <c r="AD70" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-1</v>
       </c>
       <c r="AE70" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="AF70" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="AG70" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="AH70" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>8.1304366453458776</v>
       </c>
     </row>
@@ -24364,35 +24585,35 @@
         <v>-1</v>
       </c>
       <c r="F71" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>-1</v>
       </c>
       <c r="G71" s="2">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="H71" s="2">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="I71" s="2">
+        <f t="shared" si="54"/>
+        <v>-1</v>
+      </c>
+      <c r="J71" s="2">
+        <f t="shared" si="55"/>
+        <v>-1</v>
+      </c>
+      <c r="K71" s="2">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="L71" s="37">
+        <f t="shared" si="57"/>
+        <v>5.1050069670400724</v>
+      </c>
+      <c r="O71" s="18">
         <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="H71" s="2">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="I71" s="2">
-        <f t="shared" si="52"/>
-        <v>-1</v>
-      </c>
-      <c r="J71" s="2">
-        <f t="shared" si="53"/>
-        <v>-1</v>
-      </c>
-      <c r="K71" s="2">
-        <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="L71" s="37">
-        <f t="shared" si="55"/>
-        <v>5.1050069670400724</v>
-      </c>
-      <c r="O71" s="18">
-        <f t="shared" si="48"/>
         <v>-5.1050069670400724</v>
       </c>
       <c r="R71" s="32">
@@ -24411,51 +24632,51 @@
         <v>-1</v>
       </c>
       <c r="W71" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="X71" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1</v>
       </c>
       <c r="Y71" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="Z71" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-1</v>
       </c>
       <c r="AA71" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="AB71" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-1</v>
       </c>
       <c r="AC71" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="AD71" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-1</v>
       </c>
       <c r="AE71" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="AF71" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="AG71" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-1</v>
       </c>
       <c r="AH71" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>14.628107737563553</v>
       </c>
     </row>
@@ -24476,35 +24697,35 @@
         <v>-1</v>
       </c>
       <c r="F72" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="G72" s="2">
+        <f t="shared" si="52"/>
+        <v>-1</v>
+      </c>
+      <c r="H72" s="2">
+        <f t="shared" si="53"/>
+        <v>-1</v>
+      </c>
+      <c r="I72" s="2">
+        <f t="shared" si="54"/>
+        <v>-1</v>
+      </c>
+      <c r="J72" s="2">
+        <f t="shared" si="55"/>
+        <v>-1</v>
+      </c>
+      <c r="K72" s="2">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="L72" s="37">
+        <f t="shared" si="57"/>
+        <v>6.0748674785633527</v>
+      </c>
+      <c r="O72" s="18">
         <f t="shared" si="50"/>
-        <v>-1</v>
-      </c>
-      <c r="H72" s="2">
-        <f t="shared" si="51"/>
-        <v>-1</v>
-      </c>
-      <c r="I72" s="2">
-        <f t="shared" si="52"/>
-        <v>-1</v>
-      </c>
-      <c r="J72" s="2">
-        <f t="shared" si="53"/>
-        <v>-1</v>
-      </c>
-      <c r="K72" s="2">
-        <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="L72" s="37">
-        <f t="shared" si="55"/>
-        <v>6.0748674785633527</v>
-      </c>
-      <c r="O72" s="18">
-        <f t="shared" si="48"/>
         <v>6.0748674785633527</v>
       </c>
       <c r="R72" s="32">
@@ -24523,51 +24744,51 @@
         <v>-1</v>
       </c>
       <c r="W72" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-1</v>
       </c>
       <c r="X72" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="Y72" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-1</v>
       </c>
       <c r="Z72" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-1</v>
       </c>
       <c r="AA72" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="AB72" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-1</v>
       </c>
       <c r="AC72" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-1</v>
       </c>
       <c r="AD72" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="AE72" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>-1</v>
       </c>
       <c r="AF72" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="AG72" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="AH72" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>2.8663547939044607</v>
       </c>
     </row>
@@ -24588,15 +24809,15 @@
         <v>-1</v>
       </c>
       <c r="F73" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>-1</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I73" s="2">
@@ -24604,19 +24825,19 @@
         <v>-1</v>
       </c>
       <c r="J73" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="K73" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>-1</v>
       </c>
       <c r="L73" s="37">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>-24.831909343586464</v>
       </c>
       <c r="O73" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-24.831909343586464</v>
       </c>
       <c r="R73" s="32">
@@ -24635,51 +24856,51 @@
         <v>-1</v>
       </c>
       <c r="W73" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-1</v>
       </c>
       <c r="X73" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1</v>
       </c>
       <c r="Y73" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="Z73" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="AA73" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-1</v>
       </c>
       <c r="AB73" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-1</v>
       </c>
       <c r="AC73" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-1</v>
       </c>
       <c r="AD73" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="AE73" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="AF73" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-1</v>
       </c>
       <c r="AG73" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="AH73" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1.0601643278815294</v>
       </c>
     </row>
@@ -24700,35 +24921,35 @@
         <v>-1</v>
       </c>
       <c r="F74" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>-1</v>
       </c>
       <c r="G74" s="2">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="H74" s="2">
+        <f t="shared" si="53"/>
+        <v>-1</v>
+      </c>
+      <c r="I74" s="2">
+        <f t="shared" si="54"/>
+        <v>-1</v>
+      </c>
+      <c r="J74" s="2">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K74" s="2">
+        <f t="shared" si="56"/>
+        <v>-1</v>
+      </c>
+      <c r="L74" s="37">
+        <f t="shared" si="57"/>
+        <v>16.574595611547892</v>
+      </c>
+      <c r="O74" s="18">
         <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="H74" s="2">
-        <f t="shared" si="51"/>
-        <v>-1</v>
-      </c>
-      <c r="I74" s="2">
-        <f t="shared" si="52"/>
-        <v>-1</v>
-      </c>
-      <c r="J74" s="2">
-        <f t="shared" si="53"/>
-        <v>1</v>
-      </c>
-      <c r="K74" s="2">
-        <f t="shared" si="54"/>
-        <v>-1</v>
-      </c>
-      <c r="L74" s="37">
-        <f t="shared" si="55"/>
-        <v>16.574595611547892</v>
-      </c>
-      <c r="O74" s="18">
-        <f t="shared" si="48"/>
         <v>-16.574595611547892</v>
       </c>
       <c r="R74" s="32">
@@ -24747,51 +24968,51 @@
         <v>-1</v>
       </c>
       <c r="W74" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="X74" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="Y74" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-1</v>
       </c>
       <c r="Z74" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="AA74" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-1</v>
       </c>
       <c r="AB74" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-1</v>
       </c>
       <c r="AC74" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="AD74" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-1</v>
       </c>
       <c r="AE74" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>-1</v>
       </c>
       <c r="AF74" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-1</v>
       </c>
       <c r="AG74" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-1</v>
       </c>
       <c r="AH74" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>12.128939069634299</v>
       </c>
     </row>
@@ -24812,35 +25033,35 @@
         <v>-1</v>
       </c>
       <c r="F75" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>-1</v>
       </c>
       <c r="G75" s="2">
+        <f t="shared" si="52"/>
+        <v>-1</v>
+      </c>
+      <c r="H75" s="2">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="I75" s="2">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="J75" s="2">
+        <f t="shared" si="55"/>
+        <v>-1</v>
+      </c>
+      <c r="K75" s="2">
+        <f t="shared" si="56"/>
+        <v>-1</v>
+      </c>
+      <c r="L75" s="37">
+        <f t="shared" si="57"/>
+        <v>1.0489681524798404</v>
+      </c>
+      <c r="O75" s="18">
         <f t="shared" si="50"/>
-        <v>-1</v>
-      </c>
-      <c r="H75" s="2">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="I75" s="2">
-        <f t="shared" si="52"/>
-        <v>1</v>
-      </c>
-      <c r="J75" s="2">
-        <f t="shared" si="53"/>
-        <v>-1</v>
-      </c>
-      <c r="K75" s="2">
-        <f t="shared" si="54"/>
-        <v>-1</v>
-      </c>
-      <c r="L75" s="37">
-        <f t="shared" si="55"/>
-        <v>1.0489681524798404</v>
-      </c>
-      <c r="O75" s="18">
-        <f t="shared" si="48"/>
         <v>-1.0489681524798404</v>
       </c>
       <c r="R75" s="32">
@@ -24859,51 +25080,51 @@
         <v>1</v>
       </c>
       <c r="W75" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="X75" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="Y75" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-1</v>
       </c>
       <c r="Z75" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="AA75" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-1</v>
       </c>
       <c r="AB75" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-1</v>
       </c>
       <c r="AC75" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-1</v>
       </c>
       <c r="AD75" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="AE75" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="AF75" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="AG75" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-1</v>
       </c>
       <c r="AH75" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>5.357340659659247</v>
       </c>
     </row>
@@ -24924,35 +25145,35 @@
         <v>-1</v>
       </c>
       <c r="F76" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="G76" s="2">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="H76" s="2">
+        <f t="shared" si="53"/>
+        <v>-1</v>
+      </c>
+      <c r="I76" s="2">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="J76" s="2">
+        <f t="shared" si="55"/>
+        <v>-1</v>
+      </c>
+      <c r="K76" s="2">
+        <f t="shared" si="56"/>
+        <v>-1</v>
+      </c>
+      <c r="L76" s="37">
+        <f t="shared" si="57"/>
+        <v>13.89166084364531</v>
+      </c>
+      <c r="O76" s="18">
         <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="H76" s="2">
-        <f t="shared" si="51"/>
-        <v>-1</v>
-      </c>
-      <c r="I76" s="2">
-        <f t="shared" si="52"/>
-        <v>1</v>
-      </c>
-      <c r="J76" s="2">
-        <f t="shared" si="53"/>
-        <v>-1</v>
-      </c>
-      <c r="K76" s="2">
-        <f t="shared" si="54"/>
-        <v>-1</v>
-      </c>
-      <c r="L76" s="37">
-        <f t="shared" si="55"/>
-        <v>13.89166084364531</v>
-      </c>
-      <c r="O76" s="18">
-        <f t="shared" si="48"/>
         <v>13.89166084364531</v>
       </c>
       <c r="R76" s="32">
@@ -24971,51 +25192,51 @@
         <v>1</v>
       </c>
       <c r="W76" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-1</v>
       </c>
       <c r="X76" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1</v>
       </c>
       <c r="Y76" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="Z76" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="AA76" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-1</v>
       </c>
       <c r="AB76" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-1</v>
       </c>
       <c r="AC76" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="AD76" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-1</v>
       </c>
       <c r="AE76" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>-1</v>
       </c>
       <c r="AF76" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="AG76" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="AH76" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.42632191568472555</v>
       </c>
     </row>
@@ -25036,35 +25257,35 @@
         <v>1</v>
       </c>
       <c r="F77" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="G77" s="2">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="H77" s="2">
+        <f t="shared" si="53"/>
+        <v>-1</v>
+      </c>
+      <c r="I77" s="2">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="J77" s="2">
+        <f t="shared" si="55"/>
+        <v>-1</v>
+      </c>
+      <c r="K77" s="2">
+        <f t="shared" si="56"/>
+        <v>-1</v>
+      </c>
+      <c r="L77" s="37">
+        <f t="shared" si="57"/>
+        <v>9.4546858513181977</v>
+      </c>
+      <c r="O77" s="18">
         <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="H77" s="2">
-        <f t="shared" si="51"/>
-        <v>-1</v>
-      </c>
-      <c r="I77" s="2">
-        <f t="shared" si="52"/>
-        <v>1</v>
-      </c>
-      <c r="J77" s="2">
-        <f t="shared" si="53"/>
-        <v>-1</v>
-      </c>
-      <c r="K77" s="2">
-        <f t="shared" si="54"/>
-        <v>-1</v>
-      </c>
-      <c r="L77" s="37">
-        <f t="shared" si="55"/>
-        <v>9.4546858513181977</v>
-      </c>
-      <c r="O77" s="18">
-        <f t="shared" si="48"/>
         <v>9.4546858513181977</v>
       </c>
       <c r="R77" s="32">
@@ -25083,51 +25304,51 @@
         <v>1</v>
       </c>
       <c r="W77" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-1</v>
       </c>
       <c r="X77" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="Y77" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-1</v>
       </c>
       <c r="Z77" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-1</v>
       </c>
       <c r="AA77" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="AB77" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-1</v>
       </c>
       <c r="AC77" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="AD77" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-1</v>
       </c>
       <c r="AE77" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="AF77" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-1</v>
       </c>
       <c r="AG77" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="AH77" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>6.8350546077768879</v>
       </c>
     </row>
@@ -25148,35 +25369,35 @@
         <v>1</v>
       </c>
       <c r="F78" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>-1</v>
       </c>
       <c r="G78" s="2">
+        <f t="shared" si="52"/>
+        <v>-1</v>
+      </c>
+      <c r="H78" s="2">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="I78" s="2">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="J78" s="2">
+        <f t="shared" si="55"/>
+        <v>-1</v>
+      </c>
+      <c r="K78" s="2">
+        <f t="shared" si="56"/>
+        <v>-1</v>
+      </c>
+      <c r="L78" s="37">
+        <f t="shared" si="57"/>
+        <v>7.2273672629376673</v>
+      </c>
+      <c r="O78" s="18">
         <f t="shared" si="50"/>
-        <v>-1</v>
-      </c>
-      <c r="H78" s="2">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="I78" s="2">
-        <f t="shared" si="52"/>
-        <v>1</v>
-      </c>
-      <c r="J78" s="2">
-        <f t="shared" si="53"/>
-        <v>-1</v>
-      </c>
-      <c r="K78" s="2">
-        <f t="shared" si="54"/>
-        <v>-1</v>
-      </c>
-      <c r="L78" s="37">
-        <f t="shared" si="55"/>
-        <v>7.2273672629376673</v>
-      </c>
-      <c r="O78" s="18">
-        <f t="shared" si="48"/>
         <v>-7.2273672629376673</v>
       </c>
       <c r="R78" s="32">
@@ -25195,51 +25416,51 @@
         <v>1</v>
       </c>
       <c r="W78" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="X78" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1</v>
       </c>
       <c r="Y78" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="Z78" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-1</v>
       </c>
       <c r="AA78" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="AB78" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-1</v>
       </c>
       <c r="AC78" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-1</v>
       </c>
       <c r="AD78" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="AE78" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>-1</v>
       </c>
       <c r="AF78" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-1</v>
       </c>
       <c r="AG78" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-1</v>
       </c>
       <c r="AH78" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>33.010299956639813</v>
       </c>
     </row>
@@ -25260,35 +25481,35 @@
         <v>1</v>
       </c>
       <c r="F79" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>-1</v>
       </c>
       <c r="G79" s="2">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="H79" s="2">
+        <f t="shared" si="53"/>
+        <v>-1</v>
+      </c>
+      <c r="I79" s="2">
+        <f t="shared" si="54"/>
+        <v>-1</v>
+      </c>
+      <c r="J79" s="2">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K79" s="2">
+        <f t="shared" si="56"/>
+        <v>-1</v>
+      </c>
+      <c r="L79" s="37">
+        <f t="shared" si="57"/>
+        <v>26.628102795388816</v>
+      </c>
+      <c r="O79" s="18">
         <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="H79" s="2">
-        <f t="shared" si="51"/>
-        <v>-1</v>
-      </c>
-      <c r="I79" s="2">
-        <f t="shared" si="52"/>
-        <v>-1</v>
-      </c>
-      <c r="J79" s="2">
-        <f t="shared" si="53"/>
-        <v>1</v>
-      </c>
-      <c r="K79" s="2">
-        <f t="shared" si="54"/>
-        <v>-1</v>
-      </c>
-      <c r="L79" s="37">
-        <f t="shared" si="55"/>
-        <v>26.628102795388816</v>
-      </c>
-      <c r="O79" s="18">
-        <f t="shared" si="48"/>
         <v>-26.628102795388816</v>
       </c>
       <c r="R79" s="32">
@@ -25307,51 +25528,51 @@
         <v>1</v>
       </c>
       <c r="W79" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="X79" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1</v>
       </c>
       <c r="Y79" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-1</v>
       </c>
       <c r="Z79" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-1</v>
       </c>
       <c r="AA79" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-1</v>
       </c>
       <c r="AB79" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="AC79" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="AD79" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="AE79" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>-1</v>
       </c>
       <c r="AF79" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-1</v>
       </c>
       <c r="AG79" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="AH79" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-0.15715932006950581</v>
       </c>
     </row>
@@ -25372,35 +25593,35 @@
         <v>1</v>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="G80" s="2">
+        <f t="shared" si="52"/>
+        <v>-1</v>
+      </c>
+      <c r="H80" s="2">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="I80" s="2">
+        <f t="shared" si="54"/>
+        <v>-1</v>
+      </c>
+      <c r="J80" s="2">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K80" s="2">
+        <f t="shared" si="56"/>
+        <v>-1</v>
+      </c>
+      <c r="L80" s="37">
+        <f t="shared" si="57"/>
+        <v>3.010299956639813</v>
+      </c>
+      <c r="O80" s="18">
         <f t="shared" si="50"/>
-        <v>-1</v>
-      </c>
-      <c r="H80" s="2">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="I80" s="2">
-        <f t="shared" si="52"/>
-        <v>-1</v>
-      </c>
-      <c r="J80" s="2">
-        <f t="shared" si="53"/>
-        <v>1</v>
-      </c>
-      <c r="K80" s="2">
-        <f t="shared" si="54"/>
-        <v>-1</v>
-      </c>
-      <c r="L80" s="37">
-        <f t="shared" si="55"/>
-        <v>3.010299956639813</v>
-      </c>
-      <c r="O80" s="18">
-        <f t="shared" si="48"/>
         <v>3.010299956639813</v>
       </c>
       <c r="R80" s="32">
@@ -25419,51 +25640,51 @@
         <v>1</v>
       </c>
       <c r="W80" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-1</v>
       </c>
       <c r="X80" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="Y80" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="Z80" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-1</v>
       </c>
       <c r="AA80" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-1</v>
       </c>
       <c r="AB80" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="AC80" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-1</v>
       </c>
       <c r="AD80" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-1</v>
       </c>
       <c r="AE80" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="AF80" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-1</v>
       </c>
       <c r="AG80" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-1</v>
       </c>
       <c r="AH80" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1.5848411157770483</v>
       </c>
     </row>
@@ -25484,35 +25705,35 @@
         <v>1</v>
       </c>
       <c r="F81" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="G81" s="2">
+        <f t="shared" si="52"/>
+        <v>-1</v>
+      </c>
+      <c r="H81" s="2">
+        <f t="shared" si="53"/>
+        <v>-1</v>
+      </c>
+      <c r="I81" s="2">
+        <f t="shared" si="54"/>
+        <v>-1</v>
+      </c>
+      <c r="J81" s="2">
+        <f t="shared" si="55"/>
+        <v>-1</v>
+      </c>
+      <c r="K81" s="2">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="L81" s="37">
+        <f t="shared" si="57"/>
+        <v>6.4425790906585583</v>
+      </c>
+      <c r="O81" s="18">
         <f t="shared" si="50"/>
-        <v>-1</v>
-      </c>
-      <c r="H81" s="2">
-        <f t="shared" si="51"/>
-        <v>-1</v>
-      </c>
-      <c r="I81" s="2">
-        <f t="shared" si="52"/>
-        <v>-1</v>
-      </c>
-      <c r="J81" s="2">
-        <f t="shared" si="53"/>
-        <v>-1</v>
-      </c>
-      <c r="K81" s="2">
-        <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="L81" s="37">
-        <f t="shared" si="55"/>
-        <v>6.4425790906585583</v>
-      </c>
-      <c r="O81" s="18">
-        <f t="shared" si="48"/>
         <v>6.4425790906585583</v>
       </c>
       <c r="R81" s="32">
@@ -25531,51 +25752,51 @@
         <v>1</v>
       </c>
       <c r="W81" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-1</v>
       </c>
       <c r="X81" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1</v>
       </c>
       <c r="Y81" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-1</v>
       </c>
       <c r="Z81" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="AA81" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="AB81" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="AC81" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-1</v>
       </c>
       <c r="AD81" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-1</v>
       </c>
       <c r="AE81" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>-1</v>
       </c>
       <c r="AF81" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="AG81" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-1</v>
       </c>
       <c r="AH81" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1.6941133131485566</v>
       </c>
     </row>
@@ -25596,35 +25817,35 @@
         <v>1</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>-1</v>
       </c>
       <c r="G82" s="2">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="H82" s="2">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="I82" s="2">
+        <f t="shared" si="54"/>
+        <v>-1</v>
+      </c>
+      <c r="J82" s="2">
+        <f t="shared" si="55"/>
+        <v>-1</v>
+      </c>
+      <c r="K82" s="2">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="L82" s="37">
+        <f t="shared" si="57"/>
+        <v>-5.0989813756516558</v>
+      </c>
+      <c r="O82" s="18">
         <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="H82" s="2">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="I82" s="2">
-        <f t="shared" si="52"/>
-        <v>-1</v>
-      </c>
-      <c r="J82" s="2">
-        <f t="shared" si="53"/>
-        <v>-1</v>
-      </c>
-      <c r="K82" s="2">
-        <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="L82" s="37">
-        <f t="shared" si="55"/>
-        <v>-5.0989813756516558</v>
-      </c>
-      <c r="O82" s="18">
-        <f t="shared" si="48"/>
         <v>5.0989813756516558</v>
       </c>
       <c r="R82" s="33">
@@ -25643,51 +25864,51 @@
         <v>1</v>
       </c>
       <c r="W82" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="X82" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="Y82" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="Z82" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="AA82" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="AB82" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="AC82" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="AD82" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="AE82" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="AF82" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="AG82" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="AH82" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>8.6075078242839282</v>
       </c>
     </row>
@@ -25708,35 +25929,35 @@
         <v>1</v>
       </c>
       <c r="F83" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>-1</v>
       </c>
       <c r="G83" s="2">
+        <f t="shared" si="52"/>
+        <v>-1</v>
+      </c>
+      <c r="H83" s="2">
+        <f t="shared" si="53"/>
+        <v>-1</v>
+      </c>
+      <c r="I83" s="2">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="J83" s="2">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K83" s="2">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="L83" s="37">
+        <f t="shared" si="57"/>
+        <v>5.4715545888307009</v>
+      </c>
+      <c r="O83" s="18">
         <f t="shared" si="50"/>
-        <v>-1</v>
-      </c>
-      <c r="H83" s="2">
-        <f t="shared" si="51"/>
-        <v>-1</v>
-      </c>
-      <c r="I83" s="2">
-        <f t="shared" si="52"/>
-        <v>1</v>
-      </c>
-      <c r="J83" s="2">
-        <f t="shared" si="53"/>
-        <v>1</v>
-      </c>
-      <c r="K83" s="2">
-        <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="L83" s="37">
-        <f t="shared" si="55"/>
-        <v>5.4715545888307009</v>
-      </c>
-      <c r="O83" s="18">
-        <f t="shared" si="48"/>
         <v>-5.4715545888307009</v>
       </c>
     </row>
@@ -25757,35 +25978,35 @@
         <v>1</v>
       </c>
       <c r="F84" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="G84" s="4">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="H84" s="4">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="I84" s="4">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="J84" s="4">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K84" s="4">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="L84" s="37">
+        <f t="shared" si="57"/>
+        <v>18.811309430306839</v>
+      </c>
+      <c r="O84" s="18">
         <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="H84" s="4">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="I84" s="4">
-        <f t="shared" si="52"/>
-        <v>1</v>
-      </c>
-      <c r="J84" s="4">
-        <f t="shared" si="53"/>
-        <v>1</v>
-      </c>
-      <c r="K84" s="4">
-        <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="L84" s="37">
-        <f t="shared" si="55"/>
-        <v>18.811309430306839</v>
-      </c>
-      <c r="O84" s="18">
-        <f t="shared" si="48"/>
         <v>18.811309430306839</v>
       </c>
       <c r="R84" s="23"/>
@@ -25842,76 +26063,76 @@
         <v>2.9783443018428795</v>
       </c>
       <c r="T85" s="27">
-        <f t="shared" ref="T85:AG85" si="56">SUMPRODUCT(T67:T82,$AH$67:$AH$82)/8</f>
+        <f t="shared" ref="T85:AG85" si="58">SUMPRODUCT(T67:T82,$AH$67:$AH$82)/8</f>
         <v>7.5764626510917266</v>
       </c>
       <c r="U85" s="27">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>-2.2953276215420204</v>
       </c>
       <c r="V85" s="27">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.4410351811521878</v>
       </c>
       <c r="W85" s="27">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>7.4852399579443656</v>
       </c>
       <c r="X85" s="27">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>-0.98774011557397845</v>
       </c>
       <c r="Y85" s="27">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>4.4965610861247036</v>
       </c>
       <c r="Z85" s="27">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>-6.434317599148538</v>
       </c>
       <c r="AA85" s="27">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>3.1574451816076907</v>
       </c>
       <c r="AB85" s="27">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>-6.1796009301131409</v>
       </c>
       <c r="AC85" s="27">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>-0.48475951776919457</v>
       </c>
       <c r="AD85" s="27">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.5841745840872017</v>
       </c>
       <c r="AE85" s="27">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>-2.1594677989026403</v>
       </c>
       <c r="AF85" s="27">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0.13737943731159163</v>
       </c>
       <c r="AG85" s="27">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>-5.9989579866179623</v>
       </c>
     </row>
     <row r="86" spans="1:39" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="160" t="s">
+      <c r="A86" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="B86" s="161"/>
-      <c r="C86" s="161"/>
-      <c r="D86" s="161"/>
-      <c r="E86" s="161"/>
-      <c r="F86" s="161"/>
-      <c r="G86" s="161"/>
-      <c r="H86" s="161"/>
-      <c r="I86" s="161"/>
-      <c r="J86" s="161"/>
-      <c r="K86" s="162"/>
+      <c r="B86" s="148"/>
+      <c r="C86" s="148"/>
+      <c r="D86" s="148"/>
+      <c r="E86" s="148"/>
+      <c r="F86" s="148"/>
+      <c r="G86" s="148"/>
+      <c r="H86" s="148"/>
+      <c r="I86" s="148"/>
+      <c r="J86" s="148"/>
+      <c r="K86" s="149"/>
       <c r="R86" s="29" t="s">
         <v>92</v>
       </c>
@@ -25998,63 +26219,63 @@
         <v>6.449272418536494</v>
       </c>
       <c r="S87" s="27">
-        <f t="shared" ref="S87:AG87" si="57">S85/2</f>
+        <f t="shared" ref="S87:AG87" si="59">S85/2</f>
         <v>1.4891721509214397</v>
       </c>
       <c r="T87" s="27">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>3.7882313255458633</v>
       </c>
       <c r="U87" s="27">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>-1.1476638107710102</v>
       </c>
       <c r="V87" s="27">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.72051759057609388</v>
       </c>
       <c r="W87" s="27">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>3.7426199789721828</v>
       </c>
       <c r="X87" s="27">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>-0.49387005778698922</v>
       </c>
       <c r="Y87" s="27">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>2.2482805430623518</v>
       </c>
       <c r="Z87" s="27">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>-3.217158799574269</v>
       </c>
       <c r="AA87" s="27">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1.5787225908038454</v>
       </c>
       <c r="AB87" s="27">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>-3.0898004650565705</v>
       </c>
       <c r="AC87" s="27">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>-0.24237975888459729</v>
       </c>
       <c r="AD87" s="27">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.79208729204360084</v>
       </c>
       <c r="AE87" s="27">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>-1.0797338994513201</v>
       </c>
       <c r="AF87" s="27">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>6.8689718655795817E-2</v>
       </c>
       <c r="AG87" s="27">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>-2.9994789933089812</v>
       </c>
     </row>
@@ -26069,35 +26290,35 @@
         <v>8.0283338580530383</v>
       </c>
       <c r="D88" s="27">
-        <f t="shared" ref="D88:K88" si="58">SUMPRODUCT(D69:D84,$L$69:$L$84)/8</f>
+        <f t="shared" ref="D88:K88" si="60">SUMPRODUCT(D69:D84,$L$69:$L$84)/8</f>
         <v>-3.9046644456128949</v>
       </c>
       <c r="E88" s="27">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>6.0046207049365847</v>
       </c>
       <c r="F88" s="27">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>-4.2797869595714246</v>
       </c>
       <c r="G88" s="27">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>8.8484347444410414</v>
       </c>
       <c r="H88" s="27">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>-11.175145023916301</v>
       </c>
       <c r="I88" s="27">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>3.505968400020552</v>
       </c>
       <c r="J88" s="27">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.94557012742281255</v>
       </c>
       <c r="K88" s="28">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>-1.2688340874221198</v>
       </c>
     </row>
@@ -26146,39 +26367,39 @@
         <v>2.5817066304626994</v>
       </c>
       <c r="C90" s="27">
-        <f t="shared" ref="C90:K90" si="59">C88/2</f>
+        <f t="shared" ref="C90:K90" si="61">C88/2</f>
         <v>4.0141669290265192</v>
       </c>
       <c r="D90" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>-1.9523322228064475</v>
       </c>
       <c r="E90" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>3.0023103524682924</v>
       </c>
       <c r="F90" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>-2.1398934797857123</v>
       </c>
       <c r="G90" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>4.4242173722205207</v>
       </c>
       <c r="H90" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>-5.5875725119581503</v>
       </c>
       <c r="I90" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.752984200010276</v>
       </c>
       <c r="J90" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.47278506371140627</v>
       </c>
       <c r="K90" s="28">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>-0.63441704371105989</v>
       </c>
       <c r="X90" s="18" t="s">
@@ -26202,19 +26423,19 @@
         <v>0.23499179006782206</v>
       </c>
       <c r="Y91" s="107">
-        <f t="shared" ref="Y91:AB91" si="60">AD85^2</f>
+        <f t="shared" ref="Y91:AB91" si="62">AD85^2</f>
         <v>2.5096091128678584</v>
       </c>
       <c r="Z91" s="107">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>4.6633011744974144</v>
       </c>
       <c r="AA91" s="107">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1.8873109796049534E-2</v>
       </c>
       <c r="AB91" s="107">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>35.987496925207438</v>
       </c>
     </row>
@@ -26419,59 +26640,59 @@
         <v>2.9783443018428795</v>
       </c>
       <c r="Z96" s="142">
-        <f t="shared" ref="Z96:AM96" si="61">T85</f>
+        <f t="shared" ref="Z96:AM96" si="63">T85</f>
         <v>7.5764626510917266</v>
       </c>
       <c r="AA96" s="142">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>-2.2953276215420204</v>
       </c>
       <c r="AB96" s="142">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1.4410351811521878</v>
       </c>
       <c r="AC96" s="142">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>7.4852399579443656</v>
       </c>
       <c r="AD96" s="142">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>-0.98774011557397845</v>
       </c>
       <c r="AE96" s="142">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>4.4965610861247036</v>
       </c>
       <c r="AF96" s="142">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>-6.434317599148538</v>
       </c>
       <c r="AG96" s="142">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>3.1574451816076907</v>
       </c>
       <c r="AH96" s="142">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>-6.1796009301131409</v>
       </c>
       <c r="AI96" s="142">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>-0.48475951776919457</v>
       </c>
       <c r="AJ96" s="142">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1.5841745840872017</v>
       </c>
       <c r="AK96" s="142">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>-2.1594677989026403</v>
       </c>
       <c r="AL96" s="142">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0.13737943731159163</v>
       </c>
       <c r="AM96" s="142">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>-5.9989579866179623</v>
       </c>
     </row>
@@ -26495,47 +26716,47 @@
         <v>-1</v>
       </c>
       <c r="J97" s="2">
-        <f t="shared" ref="J97:J111" si="62">F97*G97</f>
+        <f t="shared" ref="J97:J111" si="64">F97*G97</f>
         <v>-1</v>
       </c>
       <c r="K97" s="2">
-        <f t="shared" ref="K97:K111" si="63">F97*H97</f>
+        <f t="shared" ref="K97:K111" si="65">F97*H97</f>
         <v>-1</v>
       </c>
       <c r="L97" s="2">
-        <f t="shared" ref="L97:L111" si="64">F97*I97</f>
+        <f t="shared" ref="L97:L111" si="66">F97*I97</f>
         <v>-1</v>
       </c>
       <c r="M97" s="2">
-        <f t="shared" ref="M97:M99" si="65">G97*H97</f>
+        <f t="shared" ref="M97:M99" si="67">G97*H97</f>
         <v>1</v>
       </c>
       <c r="N97" s="2">
-        <f t="shared" ref="N97:N111" si="66">G97*I97</f>
+        <f t="shared" ref="N97:N111" si="68">G97*I97</f>
         <v>1</v>
       </c>
       <c r="O97" s="2">
-        <f t="shared" ref="O97:O111" si="67">H97*I97</f>
+        <f t="shared" ref="O97:O111" si="69">H97*I97</f>
         <v>1</v>
       </c>
       <c r="P97" s="2">
-        <f t="shared" ref="P97:P111" si="68">F97*G97*H97</f>
+        <f t="shared" ref="P97:P111" si="70">F97*G97*H97</f>
         <v>1</v>
       </c>
       <c r="Q97" s="2">
-        <f t="shared" ref="Q97:Q111" si="69">F97*G97*I97</f>
+        <f t="shared" ref="Q97:Q111" si="71">F97*G97*I97</f>
         <v>1</v>
       </c>
       <c r="R97" s="2">
-        <f t="shared" ref="R97:R111" si="70">F97*H97*I97</f>
+        <f t="shared" ref="R97:R111" si="72">F97*H97*I97</f>
         <v>1</v>
       </c>
       <c r="S97" s="2">
-        <f t="shared" ref="S97:S111" si="71">G97*H97*I97</f>
+        <f t="shared" ref="S97:S111" si="73">G97*H97*I97</f>
         <v>-1</v>
       </c>
       <c r="T97" s="2">
-        <f t="shared" ref="T97:T111" si="72">F97*G97*H97*I97</f>
+        <f t="shared" ref="T97:T111" si="74">F97*G97*H97*I97</f>
         <v>-1</v>
       </c>
       <c r="U97" s="92">
@@ -26549,59 +26770,59 @@
         <v>14.85973245356578</v>
       </c>
       <c r="Z97" s="142">
-        <f t="shared" ref="Z97:AM97" si="73">Z96+Z93</f>
+        <f t="shared" ref="Z97:AM97" si="75">Z96+Z93</f>
         <v>7.5764626510917266</v>
       </c>
       <c r="AA97" s="142">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-2.2953276215420204</v>
       </c>
       <c r="AB97" s="142">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1.4410351811521878</v>
       </c>
       <c r="AC97" s="142">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>7.4852399579443656</v>
       </c>
       <c r="AD97" s="142">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-0.98774011557397845</v>
       </c>
       <c r="AE97" s="142">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>4.4965610861247036</v>
       </c>
       <c r="AF97" s="142">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-6.434317599148538</v>
       </c>
       <c r="AG97" s="142">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>3.1574451816076907</v>
       </c>
       <c r="AH97" s="142">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-6.1796009301131409</v>
       </c>
       <c r="AI97" s="142">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-0.48475951776919457</v>
       </c>
       <c r="AJ97" s="142">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1.5841745840872017</v>
       </c>
       <c r="AK97" s="142">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-2.1594677989026403</v>
       </c>
       <c r="AL97" s="142">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>0.13737943731159163</v>
       </c>
       <c r="AM97" s="142">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-5.9989579866179623</v>
       </c>
     </row>
@@ -26626,47 +26847,47 @@
         <v>-1</v>
       </c>
       <c r="J98" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="K98" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="L98" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="M98" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>-1</v>
       </c>
       <c r="N98" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="O98" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
       <c r="P98" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="Q98" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="R98" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>-1</v>
       </c>
       <c r="S98" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T98" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="U98" s="92">
@@ -26680,59 +26901,59 @@
         <v>-8.9030438498800208</v>
       </c>
       <c r="Z98" s="142">
-        <f t="shared" ref="Z98:AM98" si="74">Z96-Z93</f>
+        <f t="shared" ref="Z98:AM98" si="76">Z96-Z93</f>
         <v>7.5764626510917266</v>
       </c>
       <c r="AA98" s="142">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>-2.2953276215420204</v>
       </c>
       <c r="AB98" s="142">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1.4410351811521878</v>
       </c>
       <c r="AC98" s="142">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>7.4852399579443656</v>
       </c>
       <c r="AD98" s="142">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>-0.98774011557397845</v>
       </c>
       <c r="AE98" s="142">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>4.4965610861247036</v>
       </c>
       <c r="AF98" s="142">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>-6.434317599148538</v>
       </c>
       <c r="AG98" s="142">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>3.1574451816076907</v>
       </c>
       <c r="AH98" s="142">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>-6.1796009301131409</v>
       </c>
       <c r="AI98" s="142">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>-0.48475951776919457</v>
       </c>
       <c r="AJ98" s="142">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1.5841745840872017</v>
       </c>
       <c r="AK98" s="142">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>-2.1594677989026403</v>
       </c>
       <c r="AL98" s="142">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>0.13737943731159163</v>
       </c>
       <c r="AM98" s="142">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>-5.9989579866179623</v>
       </c>
     </row>
@@ -26750,47 +26971,47 @@
         <v>-1</v>
       </c>
       <c r="J99" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="K99" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="L99" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="M99" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>-1</v>
       </c>
       <c r="N99" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="O99" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
       <c r="P99" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Q99" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="R99" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="S99" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T99" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="U99" s="92">
@@ -26804,59 +27025,59 @@
         <v>1.0107497479194834</v>
       </c>
       <c r="Z99" s="18">
-        <f t="shared" ref="Z99:AM99" si="75">(Z96-0)/$AA$90</f>
+        <f t="shared" ref="Z99:AM99" si="77">(Z96-0)/$AA$90</f>
         <v>2.5711962549037524</v>
       </c>
       <c r="AA99" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-0.7789568900515299</v>
       </c>
       <c r="AB99" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0.48903880763263036</v>
       </c>
       <c r="AC99" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>2.5402383451529622</v>
       </c>
       <c r="AD99" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-0.33520572897116574</v>
       </c>
       <c r="AE99" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.5259813922429661</v>
       </c>
       <c r="AF99" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-2.1835906907570037</v>
       </c>
       <c r="AG99" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.0715305545449729</v>
       </c>
       <c r="AH99" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-2.0971484319291327</v>
       </c>
       <c r="AI99" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-0.16451105403885294</v>
       </c>
       <c r="AJ99" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0.53761550017431858</v>
       </c>
       <c r="AK99" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-0.73285064189205051</v>
       </c>
       <c r="AL99" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>4.6621954199886517E-2</v>
       </c>
       <c r="AM99" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-2.0358443008089631</v>
       </c>
     </row>
@@ -26874,15 +27095,15 @@
         <v>-1</v>
       </c>
       <c r="J100" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="K100" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="L100" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="M100" s="2">
@@ -26890,31 +27111,31 @@
         <v>-1</v>
       </c>
       <c r="N100" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="O100" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>-1</v>
       </c>
       <c r="P100" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="Q100" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="R100" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="S100" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T100" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="U100" s="92">
@@ -26928,59 +27149,59 @@
         <v>0.35851981756311391</v>
       </c>
       <c r="Z100" s="18">
-        <f t="shared" ref="Z100:AM100" si="76">IF(Z99&gt;0,(1-_xlfn.T.DIST(Z99,5,1))*2,_xlfn.T.DIST(Z99,5,1))</f>
+        <f t="shared" ref="Z100:AM100" si="78">IF(Z99&gt;0,(1-_xlfn.T.DIST(Z99,5,1))*2,_xlfn.T.DIST(Z99,5,1))</f>
         <v>4.9962734970466105E-2</v>
       </c>
       <c r="AA100" s="18">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0.23562248360273091</v>
       </c>
       <c r="AB100" s="18">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0.64551003866192302</v>
       </c>
       <c r="AC100" s="18">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>5.187874765254108E-2</v>
       </c>
       <c r="AD100" s="18">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0.37553811229110312</v>
       </c>
       <c r="AE100" s="18">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0.18753686180295714</v>
       </c>
       <c r="AF100" s="18">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>4.037324823649209E-2</v>
       </c>
       <c r="AG100" s="18">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0.3329040981786533</v>
       </c>
       <c r="AH100" s="18">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>4.5039325149701361E-2</v>
       </c>
       <c r="AI100" s="18">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0.43788634703279528</v>
       </c>
       <c r="AJ100" s="18">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0.61389835954118599</v>
       </c>
       <c r="AK100" s="18">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0.24827291729133855</v>
       </c>
       <c r="AL100" s="18">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0.96461936796422432</v>
       </c>
       <c r="AM100" s="18">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>4.869153186157759E-2</v>
       </c>
     </row>
@@ -26998,47 +27219,47 @@
         <v>-1</v>
       </c>
       <c r="J101" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="K101" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="L101" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="M101" s="2">
-        <f t="shared" ref="M101:M111" si="77">G101*H101</f>
+        <f t="shared" ref="M101:M111" si="79">G101*H101</f>
         <v>-1</v>
       </c>
       <c r="N101" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="O101" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>-1</v>
       </c>
       <c r="P101" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Q101" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="R101" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>-1</v>
       </c>
       <c r="S101" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T101" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="U101" s="92">
@@ -27059,47 +27280,47 @@
         <v>-1</v>
       </c>
       <c r="J102" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="K102" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="L102" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="M102" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
       <c r="N102" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="O102" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>-1</v>
       </c>
       <c r="P102" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Q102" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="R102" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="S102" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>-1</v>
       </c>
       <c r="T102" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="U102" s="92">
@@ -27123,47 +27344,47 @@
         <v>-1</v>
       </c>
       <c r="J103" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="K103" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="L103" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="M103" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
       <c r="N103" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="O103" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>-1</v>
       </c>
       <c r="P103" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="Q103" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="R103" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>-1</v>
       </c>
       <c r="S103" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>-1</v>
       </c>
       <c r="T103" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="U103" s="92">
@@ -27202,47 +27423,47 @@
         <v>1</v>
       </c>
       <c r="J104" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="K104" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="L104" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="M104" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
       <c r="N104" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="O104" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>-1</v>
       </c>
       <c r="P104" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Q104" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="R104" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="S104" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T104" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="U104" s="92">
@@ -27285,47 +27506,47 @@
         <v>1</v>
       </c>
       <c r="J105" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="K105" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="L105" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="M105" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
       <c r="N105" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="O105" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>-1</v>
       </c>
       <c r="P105" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="Q105" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="R105" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>-1</v>
       </c>
       <c r="S105" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T105" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="U105" s="92">
@@ -27338,19 +27559,19 @@
         <v>-6.1796009301131409</v>
       </c>
       <c r="Z105" s="18">
-        <f t="shared" ref="Z105:Z118" si="78">(X105-0.5)/15</f>
+        <f t="shared" ref="Z105:Z118" si="80">(X105-0.5)/15</f>
         <v>0.1</v>
       </c>
       <c r="AA105" s="18">
-        <f t="shared" ref="AA105:AA117" si="79">_xlfn.NORM.INV(Z105,0,$AA$90)</f>
+        <f t="shared" ref="AA105:AA117" si="81">_xlfn.NORM.INV(Z105,0,$AA$90)</f>
         <v>-3.7763074496078315</v>
       </c>
       <c r="AB105" s="18">
-        <f t="shared" ref="AB105:AB118" si="80">Y105</f>
+        <f t="shared" ref="AB105:AB118" si="82">Y105</f>
         <v>-6.1796009301131409</v>
       </c>
       <c r="AC105" s="18">
-        <f t="shared" ref="AC105:AC118" si="81">AA105</f>
+        <f t="shared" ref="AC105:AC118" si="83">AA105</f>
         <v>-3.7763074496078315</v>
       </c>
     </row>
@@ -27368,47 +27589,47 @@
         <v>1</v>
       </c>
       <c r="J106" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="K106" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="L106" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="M106" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>-1</v>
       </c>
       <c r="N106" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="O106" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>-1</v>
       </c>
       <c r="P106" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="Q106" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="R106" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="S106" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>-1</v>
       </c>
       <c r="T106" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="U106" s="92">
@@ -27421,21 +27642,21 @@
         <v>-5.9989579866179623</v>
       </c>
       <c r="Z106" s="18">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="AA106" s="18">
-        <f t="shared" si="79"/>
-        <v>-2.8506705193939275</v>
-      </c>
-      <c r="AB106" s="18">
-        <f t="shared" si="80"/>
-        <v>-5.9989579866179623</v>
-      </c>
-      <c r="AC106" s="18">
         <f t="shared" si="81"/>
         <v>-2.8506705193939275</v>
       </c>
+      <c r="AB106" s="18">
+        <f t="shared" si="82"/>
+        <v>-5.9989579866179623</v>
+      </c>
+      <c r="AC106" s="18">
+        <f t="shared" si="83"/>
+        <v>-2.8506705193939275</v>
+      </c>
     </row>
     <row r="107" spans="1:39" x14ac:dyDescent="0.25">
       <c r="F107" s="2">
@@ -27451,47 +27672,47 @@
         <v>1</v>
       </c>
       <c r="J107" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="K107" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="L107" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="M107" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>-1</v>
       </c>
       <c r="N107" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="O107" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>-1</v>
       </c>
       <c r="P107" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Q107" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="R107" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>-1</v>
       </c>
       <c r="S107" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>-1</v>
       </c>
       <c r="T107" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="U107" s="92">
@@ -27504,21 +27725,21 @@
         <v>-2.2953276215420204</v>
       </c>
       <c r="Z107" s="18">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.23333333333333334</v>
       </c>
       <c r="AA107" s="18">
-        <f t="shared" si="79"/>
-        <v>-2.1449190628991843</v>
-      </c>
-      <c r="AB107" s="18">
-        <f t="shared" si="80"/>
-        <v>-2.2953276215420204</v>
-      </c>
-      <c r="AC107" s="18">
         <f t="shared" si="81"/>
         <v>-2.1449190628991843</v>
       </c>
+      <c r="AB107" s="18">
+        <f t="shared" si="82"/>
+        <v>-2.2953276215420204</v>
+      </c>
+      <c r="AC107" s="18">
+        <f t="shared" si="83"/>
+        <v>-2.1449190628991843</v>
+      </c>
     </row>
     <row r="108" spans="1:39" x14ac:dyDescent="0.25">
       <c r="F108" s="2">
@@ -27534,47 +27755,47 @@
         <v>1</v>
       </c>
       <c r="J108" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="K108" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="L108" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="M108" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>-1</v>
       </c>
       <c r="N108" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="O108" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
       <c r="P108" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="Q108" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="R108" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>-1</v>
       </c>
       <c r="S108" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>-1</v>
       </c>
       <c r="T108" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="U108" s="92">
@@ -27587,21 +27808,21 @@
         <v>-2.1594677989026403</v>
       </c>
       <c r="Z108" s="18">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.3</v>
       </c>
       <c r="AA108" s="18">
-        <f t="shared" si="79"/>
-        <v>-1.5452343986455244</v>
-      </c>
-      <c r="AB108" s="18">
-        <f t="shared" si="80"/>
-        <v>-2.1594677989026403</v>
-      </c>
-      <c r="AC108" s="18">
         <f t="shared" si="81"/>
         <v>-1.5452343986455244</v>
       </c>
+      <c r="AB108" s="18">
+        <f t="shared" si="82"/>
+        <v>-2.1594677989026403</v>
+      </c>
+      <c r="AC108" s="18">
+        <f t="shared" si="83"/>
+        <v>-1.5452343986455244</v>
+      </c>
     </row>
     <row r="109" spans="1:39" x14ac:dyDescent="0.25">
       <c r="F109" s="2">
@@ -27617,47 +27838,47 @@
         <v>1</v>
       </c>
       <c r="J109" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="K109" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="L109" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="M109" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>-1</v>
       </c>
       <c r="N109" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="O109" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
       <c r="P109" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Q109" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="R109" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="S109" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>-1</v>
       </c>
       <c r="T109" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="U109" s="92">
@@ -27670,21 +27891,21 @@
         <v>-0.98774011557397845</v>
       </c>
       <c r="Z109" s="18">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.36666666666666664</v>
       </c>
       <c r="AA109" s="18">
-        <f t="shared" si="79"/>
-        <v>-1.0039146673179411</v>
-      </c>
-      <c r="AB109" s="18">
-        <f t="shared" si="80"/>
-        <v>-0.98774011557397845</v>
-      </c>
-      <c r="AC109" s="18">
         <f t="shared" si="81"/>
         <v>-1.0039146673179411</v>
       </c>
+      <c r="AB109" s="18">
+        <f t="shared" si="82"/>
+        <v>-0.98774011557397845</v>
+      </c>
+      <c r="AC109" s="18">
+        <f t="shared" si="83"/>
+        <v>-1.0039146673179411</v>
+      </c>
     </row>
     <row r="110" spans="1:39" x14ac:dyDescent="0.25">
       <c r="F110" s="2">
@@ -27700,47 +27921,47 @@
         <v>1</v>
       </c>
       <c r="J110" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="K110" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="L110" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="M110" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
       <c r="N110" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="O110" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
       <c r="P110" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Q110" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="R110" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>-1</v>
       </c>
       <c r="S110" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T110" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="U110" s="92">
@@ -27753,21 +27974,21 @@
         <v>-0.48475951776919457</v>
       </c>
       <c r="Z110" s="18">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.43333333333333335</v>
       </c>
       <c r="AA110" s="18">
-        <f t="shared" si="79"/>
-        <v>-0.49472795170468731</v>
-      </c>
-      <c r="AB110" s="18">
-        <f t="shared" si="80"/>
-        <v>-0.48475951776919457</v>
-      </c>
-      <c r="AC110" s="18">
         <f t="shared" si="81"/>
         <v>-0.49472795170468731</v>
       </c>
+      <c r="AB110" s="18">
+        <f t="shared" si="82"/>
+        <v>-0.48475951776919457</v>
+      </c>
+      <c r="AC110" s="18">
+        <f t="shared" si="83"/>
+        <v>-0.49472795170468731</v>
+      </c>
     </row>
     <row r="111" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F111" s="4">
@@ -27783,47 +28004,47 @@
         <v>1</v>
       </c>
       <c r="J111" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="K111" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="L111" s="4">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="M111" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
       <c r="N111" s="4">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="O111" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
       <c r="P111" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="Q111" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="R111" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="S111" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T111" s="4">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="U111" s="16">
@@ -27836,21 +28057,21 @@
         <v>0.13737943731159163</v>
       </c>
       <c r="Z111" s="18">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.5</v>
       </c>
       <c r="AA111" s="18">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="AB111" s="18">
-        <f t="shared" si="80"/>
-        <v>0.13737943731159163</v>
-      </c>
-      <c r="AC111" s="18">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
+      <c r="AB111" s="18">
+        <f t="shared" si="82"/>
+        <v>0.13737943731159163</v>
+      </c>
+      <c r="AC111" s="18">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:39" x14ac:dyDescent="0.25">
       <c r="F112" s="2">
@@ -27919,21 +28140,21 @@
         <v>1.4410351811521878</v>
       </c>
       <c r="Z112" s="18">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.56666666666666665</v>
       </c>
       <c r="AA112" s="18">
-        <f t="shared" si="79"/>
-        <v>0.49472795170468731</v>
-      </c>
-      <c r="AB112" s="18">
-        <f t="shared" si="80"/>
-        <v>1.4410351811521878</v>
-      </c>
-      <c r="AC112" s="18">
         <f t="shared" si="81"/>
         <v>0.49472795170468731</v>
       </c>
+      <c r="AB112" s="18">
+        <f t="shared" si="82"/>
+        <v>1.4410351811521878</v>
+      </c>
+      <c r="AC112" s="18">
+        <f t="shared" si="83"/>
+        <v>0.49472795170468731</v>
+      </c>
     </row>
     <row r="113" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F113" s="2">
@@ -27949,47 +28170,47 @@
         <v>-1</v>
       </c>
       <c r="J113" s="2">
-        <f t="shared" ref="J113:J127" si="82">F113*G113</f>
+        <f t="shared" ref="J113:J127" si="84">F113*G113</f>
         <v>-1</v>
       </c>
       <c r="K113" s="2">
-        <f t="shared" ref="K113:K127" si="83">F113*H113</f>
+        <f t="shared" ref="K113:K127" si="85">F113*H113</f>
         <v>-1</v>
       </c>
       <c r="L113" s="2">
-        <f t="shared" ref="L113:L127" si="84">F113*I113</f>
+        <f t="shared" ref="L113:L127" si="86">F113*I113</f>
         <v>-1</v>
       </c>
       <c r="M113" s="2">
-        <f t="shared" ref="M113:M115" si="85">G113*H113</f>
+        <f t="shared" ref="M113:M115" si="87">G113*H113</f>
         <v>1</v>
       </c>
       <c r="N113" s="2">
-        <f t="shared" ref="N113:N127" si="86">G113*I113</f>
+        <f t="shared" ref="N113:N127" si="88">G113*I113</f>
         <v>1</v>
       </c>
       <c r="O113" s="2">
-        <f t="shared" ref="O113:O127" si="87">H113*I113</f>
+        <f t="shared" ref="O113:O127" si="89">H113*I113</f>
         <v>1</v>
       </c>
       <c r="P113" s="2">
-        <f t="shared" ref="P113:P127" si="88">F113*G113*H113</f>
+        <f t="shared" ref="P113:P127" si="90">F113*G113*H113</f>
         <v>1</v>
       </c>
       <c r="Q113" s="2">
-        <f t="shared" ref="Q113:Q127" si="89">F113*G113*I113</f>
+        <f t="shared" ref="Q113:Q127" si="91">F113*G113*I113</f>
         <v>1</v>
       </c>
       <c r="R113" s="2">
-        <f t="shared" ref="R113:R127" si="90">F113*H113*I113</f>
+        <f t="shared" ref="R113:R127" si="92">F113*H113*I113</f>
         <v>1</v>
       </c>
       <c r="S113" s="2">
-        <f t="shared" ref="S113:S127" si="91">G113*H113*I113</f>
+        <f t="shared" ref="S113:S127" si="93">G113*H113*I113</f>
         <v>-1</v>
       </c>
       <c r="T113" s="2">
-        <f t="shared" ref="T113:T127" si="92">F113*G113*H113*I113</f>
+        <f t="shared" ref="T113:T127" si="94">F113*G113*H113*I113</f>
         <v>-1</v>
       </c>
       <c r="U113" s="92">
@@ -28002,21 +28223,21 @@
         <v>1.5841745840872017</v>
       </c>
       <c r="Z113" s="18">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.6333333333333333</v>
       </c>
       <c r="AA113" s="18">
-        <f t="shared" si="79"/>
-        <v>1.0039146673179407</v>
-      </c>
-      <c r="AB113" s="18">
-        <f t="shared" si="80"/>
-        <v>1.5841745840872017</v>
-      </c>
-      <c r="AC113" s="18">
         <f t="shared" si="81"/>
         <v>1.0039146673179407</v>
       </c>
+      <c r="AB113" s="18">
+        <f t="shared" si="82"/>
+        <v>1.5841745840872017</v>
+      </c>
+      <c r="AC113" s="18">
+        <f t="shared" si="83"/>
+        <v>1.0039146673179407</v>
+      </c>
     </row>
     <row r="114" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F114" s="2">
@@ -28032,47 +28253,47 @@
         <v>-1</v>
       </c>
       <c r="J114" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>-1</v>
       </c>
       <c r="K114" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1</v>
       </c>
       <c r="L114" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1</v>
       </c>
       <c r="M114" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>-1</v>
       </c>
       <c r="N114" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>-1</v>
       </c>
       <c r="O114" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1</v>
       </c>
       <c r="P114" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1</v>
       </c>
       <c r="Q114" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1</v>
       </c>
       <c r="R114" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="S114" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>1</v>
       </c>
       <c r="T114" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>-1</v>
       </c>
       <c r="U114" s="92">
@@ -28085,21 +28306,21 @@
         <v>2.9783443018428795</v>
       </c>
       <c r="Z114" s="18">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.7</v>
       </c>
       <c r="AA114" s="18">
-        <f t="shared" si="79"/>
-        <v>1.5452343986455239</v>
-      </c>
-      <c r="AB114" s="18">
-        <f t="shared" si="80"/>
-        <v>2.9783443018428795</v>
-      </c>
-      <c r="AC114" s="18">
         <f t="shared" si="81"/>
         <v>1.5452343986455239</v>
       </c>
+      <c r="AB114" s="18">
+        <f t="shared" si="82"/>
+        <v>2.9783443018428795</v>
+      </c>
+      <c r="AC114" s="18">
+        <f t="shared" si="83"/>
+        <v>1.5452343986455239</v>
+      </c>
     </row>
     <row r="115" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F115" s="2">
@@ -28115,47 +28336,47 @@
         <v>-1</v>
       </c>
       <c r="J115" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="K115" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>-1</v>
       </c>
       <c r="L115" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="M115" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>-1</v>
       </c>
       <c r="N115" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>-1</v>
       </c>
       <c r="O115" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1</v>
       </c>
       <c r="P115" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>-1</v>
       </c>
       <c r="Q115" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>-1</v>
       </c>
       <c r="R115" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1</v>
       </c>
       <c r="S115" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>1</v>
       </c>
       <c r="T115" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1</v>
       </c>
       <c r="U115" s="92">
@@ -28168,21 +28389,21 @@
         <v>3.1574451816076907</v>
       </c>
       <c r="Z115" s="18">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.76666666666666672</v>
       </c>
       <c r="AA115" s="18">
-        <f t="shared" si="79"/>
-        <v>2.1449190628991839</v>
-      </c>
-      <c r="AB115" s="18">
-        <f t="shared" si="80"/>
-        <v>3.1574451816076907</v>
-      </c>
-      <c r="AC115" s="18">
         <f t="shared" si="81"/>
         <v>2.1449190628991839</v>
       </c>
+      <c r="AB115" s="18">
+        <f t="shared" si="82"/>
+        <v>3.1574451816076907</v>
+      </c>
+      <c r="AC115" s="18">
+        <f t="shared" si="83"/>
+        <v>2.1449190628991839</v>
+      </c>
     </row>
     <row r="116" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F116" s="2">
@@ -28198,15 +28419,15 @@
         <v>-1</v>
       </c>
       <c r="J116" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="K116" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>-1</v>
       </c>
       <c r="L116" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1</v>
       </c>
       <c r="M116" s="2">
@@ -28214,31 +28435,31 @@
         <v>-1</v>
       </c>
       <c r="N116" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1</v>
       </c>
       <c r="O116" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>-1</v>
       </c>
       <c r="P116" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1</v>
       </c>
       <c r="Q116" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>-1</v>
       </c>
       <c r="R116" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1</v>
       </c>
       <c r="S116" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>1</v>
       </c>
       <c r="T116" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>-1</v>
       </c>
       <c r="U116" s="92">
@@ -28251,21 +28472,21 @@
         <v>4.4965610861247036</v>
       </c>
       <c r="Z116" s="18">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="AA116" s="18">
-        <f t="shared" si="79"/>
-        <v>2.8506705193939275</v>
-      </c>
-      <c r="AB116" s="18">
-        <f t="shared" si="80"/>
-        <v>4.4965610861247036</v>
-      </c>
-      <c r="AC116" s="18">
         <f t="shared" si="81"/>
         <v>2.8506705193939275</v>
       </c>
+      <c r="AB116" s="18">
+        <f t="shared" si="82"/>
+        <v>4.4965610861247036</v>
+      </c>
+      <c r="AC116" s="18">
+        <f t="shared" si="83"/>
+        <v>2.8506705193939275</v>
+      </c>
     </row>
     <row r="117" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F117" s="2">
@@ -28281,47 +28502,47 @@
         <v>-1</v>
       </c>
       <c r="J117" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>-1</v>
       </c>
       <c r="K117" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1</v>
       </c>
       <c r="L117" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="M117" s="2">
-        <f t="shared" ref="M117:M127" si="93">G117*H117</f>
+        <f t="shared" ref="M117:M127" si="95">G117*H117</f>
         <v>-1</v>
       </c>
       <c r="N117" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1</v>
       </c>
       <c r="O117" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>-1</v>
       </c>
       <c r="P117" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>-1</v>
       </c>
       <c r="Q117" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1</v>
       </c>
       <c r="R117" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="S117" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>1</v>
       </c>
       <c r="T117" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1</v>
       </c>
       <c r="U117" s="92">
@@ -28334,21 +28555,21 @@
         <v>7.4852399579443656</v>
       </c>
       <c r="Z117" s="18">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.9</v>
       </c>
       <c r="AA117" s="18">
-        <f t="shared" si="79"/>
-        <v>3.7763074496078315</v>
-      </c>
-      <c r="AB117" s="18">
-        <f t="shared" si="80"/>
-        <v>7.4852399579443656</v>
-      </c>
-      <c r="AC117" s="18">
         <f t="shared" si="81"/>
         <v>3.7763074496078315</v>
       </c>
+      <c r="AB117" s="18">
+        <f t="shared" si="82"/>
+        <v>7.4852399579443656</v>
+      </c>
+      <c r="AC117" s="18">
+        <f t="shared" si="83"/>
+        <v>3.7763074496078315</v>
+      </c>
     </row>
     <row r="118" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F118" s="2">
@@ -28364,47 +28585,47 @@
         <v>-1</v>
       </c>
       <c r="J118" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>-1</v>
       </c>
       <c r="K118" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>-1</v>
       </c>
       <c r="L118" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1</v>
       </c>
       <c r="M118" s="2">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="N118" s="2">
+        <f t="shared" si="88"/>
+        <v>-1</v>
+      </c>
+      <c r="O118" s="2">
+        <f t="shared" si="89"/>
+        <v>-1</v>
+      </c>
+      <c r="P118" s="2">
+        <f t="shared" si="90"/>
+        <v>-1</v>
+      </c>
+      <c r="Q118" s="2">
+        <f t="shared" si="91"/>
+        <v>1</v>
+      </c>
+      <c r="R118" s="2">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="S118" s="2">
         <f t="shared" si="93"/>
-        <v>1</v>
-      </c>
-      <c r="N118" s="2">
-        <f t="shared" si="86"/>
-        <v>-1</v>
-      </c>
-      <c r="O118" s="2">
-        <f t="shared" si="87"/>
-        <v>-1</v>
-      </c>
-      <c r="P118" s="2">
-        <f t="shared" si="88"/>
-        <v>-1</v>
-      </c>
-      <c r="Q118" s="2">
-        <f t="shared" si="89"/>
-        <v>1</v>
-      </c>
-      <c r="R118" s="2">
-        <f t="shared" si="90"/>
-        <v>1</v>
-      </c>
-      <c r="S118" s="2">
-        <f t="shared" si="91"/>
         <v>-1</v>
       </c>
       <c r="T118" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1</v>
       </c>
       <c r="U118" s="92">
@@ -28417,7 +28638,7 @@
         <v>7.5764626510917266</v>
       </c>
       <c r="Z118" s="18">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.96666666666666667</v>
       </c>
       <c r="AA118" s="18">
@@ -28425,11 +28646,11 @@
         <v>5.4039382318833828</v>
       </c>
       <c r="AB118" s="18">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>7.5764626510917266</v>
       </c>
       <c r="AC118" s="18">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>5.4039382318833828</v>
       </c>
     </row>
@@ -28447,47 +28668,47 @@
         <v>-1</v>
       </c>
       <c r="J119" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="K119" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1</v>
       </c>
       <c r="L119" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="M119" s="2">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="N119" s="2">
+        <f t="shared" si="88"/>
+        <v>-1</v>
+      </c>
+      <c r="O119" s="2">
+        <f t="shared" si="89"/>
+        <v>-1</v>
+      </c>
+      <c r="P119" s="2">
+        <f t="shared" si="90"/>
+        <v>1</v>
+      </c>
+      <c r="Q119" s="2">
+        <f t="shared" si="91"/>
+        <v>-1</v>
+      </c>
+      <c r="R119" s="2">
+        <f t="shared" si="92"/>
+        <v>-1</v>
+      </c>
+      <c r="S119" s="2">
         <f t="shared" si="93"/>
-        <v>1</v>
-      </c>
-      <c r="N119" s="2">
-        <f t="shared" si="86"/>
-        <v>-1</v>
-      </c>
-      <c r="O119" s="2">
-        <f t="shared" si="87"/>
-        <v>-1</v>
-      </c>
-      <c r="P119" s="2">
-        <f t="shared" si="88"/>
-        <v>1</v>
-      </c>
-      <c r="Q119" s="2">
-        <f t="shared" si="89"/>
-        <v>-1</v>
-      </c>
-      <c r="R119" s="2">
-        <f t="shared" si="90"/>
-        <v>-1</v>
-      </c>
-      <c r="S119" s="2">
-        <f t="shared" si="91"/>
         <v>-1</v>
       </c>
       <c r="T119" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>-1</v>
       </c>
       <c r="U119" s="92">
@@ -28508,47 +28729,47 @@
         <v>1</v>
       </c>
       <c r="J120" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="K120" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1</v>
       </c>
       <c r="L120" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="M120" s="2">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="N120" s="2">
+        <f t="shared" si="88"/>
+        <v>-1</v>
+      </c>
+      <c r="O120" s="2">
+        <f t="shared" si="89"/>
+        <v>-1</v>
+      </c>
+      <c r="P120" s="2">
+        <f t="shared" si="90"/>
+        <v>-1</v>
+      </c>
+      <c r="Q120" s="2">
+        <f t="shared" si="91"/>
+        <v>1</v>
+      </c>
+      <c r="R120" s="2">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="S120" s="2">
         <f t="shared" si="93"/>
         <v>1</v>
       </c>
-      <c r="N120" s="2">
-        <f t="shared" si="86"/>
-        <v>-1</v>
-      </c>
-      <c r="O120" s="2">
-        <f t="shared" si="87"/>
-        <v>-1</v>
-      </c>
-      <c r="P120" s="2">
-        <f t="shared" si="88"/>
-        <v>-1</v>
-      </c>
-      <c r="Q120" s="2">
-        <f t="shared" si="89"/>
-        <v>1</v>
-      </c>
-      <c r="R120" s="2">
-        <f t="shared" si="90"/>
-        <v>1</v>
-      </c>
-      <c r="S120" s="2">
-        <f t="shared" si="91"/>
-        <v>1</v>
-      </c>
       <c r="T120" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>-1</v>
       </c>
       <c r="U120" s="92">
@@ -28569,47 +28790,47 @@
         <v>1</v>
       </c>
       <c r="J121" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>-1</v>
       </c>
       <c r="K121" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>-1</v>
       </c>
       <c r="L121" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1</v>
       </c>
       <c r="M121" s="2">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="N121" s="2">
+        <f t="shared" si="88"/>
+        <v>-1</v>
+      </c>
+      <c r="O121" s="2">
+        <f t="shared" si="89"/>
+        <v>-1</v>
+      </c>
+      <c r="P121" s="2">
+        <f t="shared" si="90"/>
+        <v>1</v>
+      </c>
+      <c r="Q121" s="2">
+        <f t="shared" si="91"/>
+        <v>-1</v>
+      </c>
+      <c r="R121" s="2">
+        <f t="shared" si="92"/>
+        <v>-1</v>
+      </c>
+      <c r="S121" s="2">
         <f t="shared" si="93"/>
         <v>1</v>
       </c>
-      <c r="N121" s="2">
-        <f t="shared" si="86"/>
-        <v>-1</v>
-      </c>
-      <c r="O121" s="2">
-        <f t="shared" si="87"/>
-        <v>-1</v>
-      </c>
-      <c r="P121" s="2">
-        <f t="shared" si="88"/>
-        <v>1</v>
-      </c>
-      <c r="Q121" s="2">
-        <f t="shared" si="89"/>
-        <v>-1</v>
-      </c>
-      <c r="R121" s="2">
-        <f t="shared" si="90"/>
-        <v>-1</v>
-      </c>
-      <c r="S121" s="2">
-        <f t="shared" si="91"/>
-        <v>1</v>
-      </c>
       <c r="T121" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1</v>
       </c>
       <c r="U121" s="92">
@@ -28630,47 +28851,47 @@
         <v>1</v>
       </c>
       <c r="J122" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>-1</v>
       </c>
       <c r="K122" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1</v>
       </c>
       <c r="L122" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="M122" s="2">
+        <f t="shared" si="95"/>
+        <v>-1</v>
+      </c>
+      <c r="N122" s="2">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+      <c r="O122" s="2">
+        <f t="shared" si="89"/>
+        <v>-1</v>
+      </c>
+      <c r="P122" s="2">
+        <f t="shared" si="90"/>
+        <v>1</v>
+      </c>
+      <c r="Q122" s="2">
+        <f t="shared" si="91"/>
+        <v>-1</v>
+      </c>
+      <c r="R122" s="2">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="S122" s="2">
         <f t="shared" si="93"/>
         <v>-1</v>
       </c>
-      <c r="N122" s="2">
-        <f t="shared" si="86"/>
-        <v>1</v>
-      </c>
-      <c r="O122" s="2">
-        <f t="shared" si="87"/>
-        <v>-1</v>
-      </c>
-      <c r="P122" s="2">
-        <f t="shared" si="88"/>
-        <v>1</v>
-      </c>
-      <c r="Q122" s="2">
-        <f t="shared" si="89"/>
-        <v>-1</v>
-      </c>
-      <c r="R122" s="2">
-        <f t="shared" si="90"/>
-        <v>1</v>
-      </c>
-      <c r="S122" s="2">
-        <f t="shared" si="91"/>
-        <v>-1</v>
-      </c>
       <c r="T122" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1</v>
       </c>
       <c r="U122" s="92">
@@ -28691,47 +28912,47 @@
         <v>1</v>
       </c>
       <c r="J123" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="K123" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>-1</v>
       </c>
       <c r="L123" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1</v>
       </c>
       <c r="M123" s="2">
+        <f t="shared" si="95"/>
+        <v>-1</v>
+      </c>
+      <c r="N123" s="2">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+      <c r="O123" s="2">
+        <f t="shared" si="89"/>
+        <v>-1</v>
+      </c>
+      <c r="P123" s="2">
+        <f t="shared" si="90"/>
+        <v>-1</v>
+      </c>
+      <c r="Q123" s="2">
+        <f t="shared" si="91"/>
+        <v>1</v>
+      </c>
+      <c r="R123" s="2">
+        <f t="shared" si="92"/>
+        <v>-1</v>
+      </c>
+      <c r="S123" s="2">
         <f t="shared" si="93"/>
         <v>-1</v>
       </c>
-      <c r="N123" s="2">
-        <f t="shared" si="86"/>
-        <v>1</v>
-      </c>
-      <c r="O123" s="2">
-        <f t="shared" si="87"/>
-        <v>-1</v>
-      </c>
-      <c r="P123" s="2">
-        <f t="shared" si="88"/>
-        <v>-1</v>
-      </c>
-      <c r="Q123" s="2">
-        <f t="shared" si="89"/>
-        <v>1</v>
-      </c>
-      <c r="R123" s="2">
-        <f t="shared" si="90"/>
-        <v>-1</v>
-      </c>
-      <c r="S123" s="2">
-        <f t="shared" si="91"/>
-        <v>-1</v>
-      </c>
       <c r="T123" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>-1</v>
       </c>
       <c r="U123" s="92">
@@ -28752,47 +28973,47 @@
         <v>1</v>
       </c>
       <c r="J124" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="K124" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>-1</v>
       </c>
       <c r="L124" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="M124" s="2">
+        <f t="shared" si="95"/>
+        <v>-1</v>
+      </c>
+      <c r="N124" s="2">
+        <f t="shared" si="88"/>
+        <v>-1</v>
+      </c>
+      <c r="O124" s="2">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="P124" s="2">
+        <f t="shared" si="90"/>
+        <v>1</v>
+      </c>
+      <c r="Q124" s="2">
+        <f t="shared" si="91"/>
+        <v>1</v>
+      </c>
+      <c r="R124" s="2">
+        <f t="shared" si="92"/>
+        <v>-1</v>
+      </c>
+      <c r="S124" s="2">
         <f t="shared" si="93"/>
         <v>-1</v>
       </c>
-      <c r="N124" s="2">
-        <f t="shared" si="86"/>
-        <v>-1</v>
-      </c>
-      <c r="O124" s="2">
-        <f t="shared" si="87"/>
-        <v>1</v>
-      </c>
-      <c r="P124" s="2">
-        <f t="shared" si="88"/>
-        <v>1</v>
-      </c>
-      <c r="Q124" s="2">
-        <f t="shared" si="89"/>
-        <v>1</v>
-      </c>
-      <c r="R124" s="2">
-        <f t="shared" si="90"/>
-        <v>-1</v>
-      </c>
-      <c r="S124" s="2">
-        <f t="shared" si="91"/>
-        <v>-1</v>
-      </c>
       <c r="T124" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1</v>
       </c>
       <c r="U124" s="92">
@@ -28813,47 +29034,47 @@
         <v>1</v>
       </c>
       <c r="J125" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>-1</v>
       </c>
       <c r="K125" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1</v>
       </c>
       <c r="L125" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1</v>
       </c>
       <c r="M125" s="2">
+        <f t="shared" si="95"/>
+        <v>-1</v>
+      </c>
+      <c r="N125" s="2">
+        <f t="shared" si="88"/>
+        <v>-1</v>
+      </c>
+      <c r="O125" s="2">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="P125" s="2">
+        <f t="shared" si="90"/>
+        <v>-1</v>
+      </c>
+      <c r="Q125" s="2">
+        <f t="shared" si="91"/>
+        <v>-1</v>
+      </c>
+      <c r="R125" s="2">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="S125" s="2">
         <f t="shared" si="93"/>
         <v>-1</v>
       </c>
-      <c r="N125" s="2">
-        <f t="shared" si="86"/>
-        <v>-1</v>
-      </c>
-      <c r="O125" s="2">
-        <f t="shared" si="87"/>
-        <v>1</v>
-      </c>
-      <c r="P125" s="2">
-        <f t="shared" si="88"/>
-        <v>-1</v>
-      </c>
-      <c r="Q125" s="2">
-        <f t="shared" si="89"/>
-        <v>-1</v>
-      </c>
-      <c r="R125" s="2">
-        <f t="shared" si="90"/>
-        <v>1</v>
-      </c>
-      <c r="S125" s="2">
-        <f t="shared" si="91"/>
-        <v>-1</v>
-      </c>
       <c r="T125" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>-1</v>
       </c>
       <c r="U125" s="92">
@@ -28895,47 +29116,47 @@
         <v>1</v>
       </c>
       <c r="J126" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>-1</v>
       </c>
       <c r="K126" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>-1</v>
       </c>
       <c r="L126" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="M126" s="2">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="N126" s="2">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+      <c r="O126" s="2">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="P126" s="2">
+        <f t="shared" si="90"/>
+        <v>-1</v>
+      </c>
+      <c r="Q126" s="2">
+        <f t="shared" si="91"/>
+        <v>-1</v>
+      </c>
+      <c r="R126" s="2">
+        <f t="shared" si="92"/>
+        <v>-1</v>
+      </c>
+      <c r="S126" s="2">
         <f t="shared" si="93"/>
         <v>1</v>
       </c>
-      <c r="N126" s="2">
-        <f t="shared" si="86"/>
-        <v>1</v>
-      </c>
-      <c r="O126" s="2">
-        <f t="shared" si="87"/>
-        <v>1</v>
-      </c>
-      <c r="P126" s="2">
-        <f t="shared" si="88"/>
-        <v>-1</v>
-      </c>
-      <c r="Q126" s="2">
-        <f t="shared" si="89"/>
-        <v>-1</v>
-      </c>
-      <c r="R126" s="2">
-        <f t="shared" si="90"/>
-        <v>-1</v>
-      </c>
-      <c r="S126" s="2">
-        <f t="shared" si="91"/>
-        <v>1</v>
-      </c>
       <c r="T126" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>-1</v>
       </c>
       <c r="U126" s="92">
@@ -28984,47 +29205,47 @@
         <v>1</v>
       </c>
       <c r="J127" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="K127" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1</v>
       </c>
       <c r="L127" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1</v>
       </c>
       <c r="M127" s="4">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="N127" s="4">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+      <c r="O127" s="4">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="P127" s="4">
+        <f t="shared" si="90"/>
+        <v>1</v>
+      </c>
+      <c r="Q127" s="4">
+        <f t="shared" si="91"/>
+        <v>1</v>
+      </c>
+      <c r="R127" s="4">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="S127" s="4">
         <f t="shared" si="93"/>
         <v>1</v>
       </c>
-      <c r="N127" s="4">
-        <f t="shared" si="86"/>
-        <v>1</v>
-      </c>
-      <c r="O127" s="4">
-        <f t="shared" si="87"/>
-        <v>1</v>
-      </c>
-      <c r="P127" s="4">
-        <f t="shared" si="88"/>
-        <v>1</v>
-      </c>
-      <c r="Q127" s="4">
-        <f t="shared" si="89"/>
-        <v>1</v>
-      </c>
-      <c r="R127" s="4">
-        <f t="shared" si="90"/>
-        <v>1</v>
-      </c>
-      <c r="S127" s="4">
-        <f t="shared" si="91"/>
-        <v>1</v>
-      </c>
       <c r="T127" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1</v>
       </c>
       <c r="U127" s="16">
@@ -29067,22 +29288,17 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="Y104:Y118">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Y104:Y118">
     <sortCondition ref="Y104"/>
   </sortState>
   <mergeCells count="35">
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A86:K86"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="R50:R51"/>
-    <mergeCell ref="S50:T51"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="Q49:Q51"/>
+    <mergeCell ref="K50:L51"/>
+    <mergeCell ref="O50:P51"/>
     <mergeCell ref="S54:T54"/>
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="K58:L58"/>
@@ -29099,13 +29315,18 @@
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="O56:P56"/>
     <mergeCell ref="O57:P57"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="Q49:Q51"/>
-    <mergeCell ref="K50:L51"/>
-    <mergeCell ref="O50:P51"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="R50:R51"/>
+    <mergeCell ref="S50:T51"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A86:K86"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="O58:P58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29114,7 +29335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29129,7 +29350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T78"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -31317,7 +31538,7 @@
       <c r="J64" s="18">
         <v>36.901529423353978</v>
       </c>
-      <c r="L64" s="145"/>
+      <c r="L64" s="161"/>
       <c r="M64" s="84">
         <v>1</v>
       </c>
@@ -31363,7 +31584,7 @@
       <c r="J65" s="18">
         <v>15.893124225939889</v>
       </c>
-      <c r="L65" s="145"/>
+      <c r="L65" s="161"/>
       <c r="M65" s="84">
         <v>120</v>
       </c>
@@ -31406,7 +31627,7 @@
       <c r="J66" s="18">
         <v>24.853402575389477</v>
       </c>
-      <c r="L66" s="145" t="s">
+      <c r="L66" s="161" t="s">
         <v>236</v>
       </c>
       <c r="M66" s="84" t="s">
@@ -31453,7 +31674,7 @@
       <c r="J67" s="18">
         <v>12.694791580559013</v>
       </c>
-      <c r="L67" s="145"/>
+      <c r="L67" s="161"/>
       <c r="M67" s="84">
         <v>1</v>
       </c>
@@ -31542,7 +31763,7 @@
       <c r="J69" s="18">
         <v>24.912937882314552</v>
       </c>
-      <c r="L69" s="145" t="s">
+      <c r="L69" s="161" t="s">
         <v>235</v>
       </c>
       <c r="M69" s="87" t="s">
@@ -31589,7 +31810,7 @@
       <c r="J70" s="18">
         <v>30.279746357001226</v>
       </c>
-      <c r="L70" s="145"/>
+      <c r="L70" s="161"/>
       <c r="M70" s="87">
         <v>1</v>
       </c>
@@ -31882,7 +32103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32286,7 +32507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32687,7 +32908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33758,7 +33979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Z269"/>
   <sheetViews>
     <sheetView topLeftCell="A90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -36355,7 +36576,7 @@
       <c r="K64" s="18">
         <v>36.901529423353978</v>
       </c>
-      <c r="M64" s="145"/>
+      <c r="M64" s="161"/>
       <c r="N64" s="92">
         <v>1</v>
       </c>
@@ -36401,7 +36622,7 @@
       <c r="K65" s="18">
         <v>15.893124225939889</v>
       </c>
-      <c r="M65" s="145"/>
+      <c r="M65" s="161"/>
       <c r="N65" s="92">
         <v>120</v>
       </c>
@@ -36444,7 +36665,7 @@
       <c r="K66" s="18">
         <v>24.853402575389477</v>
       </c>
-      <c r="M66" s="145" t="s">
+      <c r="M66" s="161" t="s">
         <v>236</v>
       </c>
       <c r="N66" s="92" t="s">
@@ -36491,7 +36712,7 @@
       <c r="K67" s="18">
         <v>12.694791580559013</v>
       </c>
-      <c r="M67" s="145"/>
+      <c r="M67" s="161"/>
       <c r="N67" s="92">
         <v>1</v>
       </c>
@@ -36580,7 +36801,7 @@
       <c r="K69" s="18">
         <v>24.912937882314552</v>
       </c>
-      <c r="M69" s="145" t="s">
+      <c r="M69" s="161" t="s">
         <v>235</v>
       </c>
       <c r="N69" s="92" t="s">
@@ -36627,7 +36848,7 @@
       <c r="K70" s="18">
         <v>30.279746357001226</v>
       </c>
-      <c r="M70" s="145"/>
+      <c r="M70" s="161"/>
       <c r="N70" s="92">
         <v>1</v>
       </c>
@@ -40586,21 +40807,21 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B256:B262">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B256:B262">
     <sortCondition ref="B256"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="A185:H185"/>
+    <mergeCell ref="A166:I166"/>
+    <mergeCell ref="A246:H246"/>
+    <mergeCell ref="M69:M71"/>
+    <mergeCell ref="Q70:Q71"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="K54:K55"/>
     <mergeCell ref="M63:M65"/>
     <mergeCell ref="Q64:Q65"/>
     <mergeCell ref="M66:M68"/>
     <mergeCell ref="Q67:Q68"/>
-    <mergeCell ref="A185:H185"/>
-    <mergeCell ref="A166:I166"/>
-    <mergeCell ref="A246:H246"/>
-    <mergeCell ref="M69:M71"/>
-    <mergeCell ref="Q70:Q71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40609,7 +40830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/統計管制與最佳化方法概論/homework/考古作業/HW11/HW11_0.xlsx
+++ b/統計管制與最佳化方法概論/homework/考古作業/HW11/HW11_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\考古作業\HW11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1D8ED6-62E3-46AB-8C88-3A85109A0A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EA3D63-0687-4955-A3B1-71FA711A98A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7245" yWindow="720" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="30" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_1A46C501" hidden="1">'[1]1'!$A$46:$C$50</definedName>
+    <definedName name="_xlcn.WorksheetConnection_1A46C50" hidden="1">'[1]1'!$A$46:$C$50</definedName>
     <definedName name="solver_adj" localSheetId="7" hidden="1">'2'!$C$268:$E$268</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'3'!$X$128:$AA$128</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'4'!$Q$57:$Q$59</definedName>
@@ -217,7 +217,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="範圍-84bcd8b9-4c9f-4b08-8f30-869a09f5c714" autoDelete="1" usedByAddin="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_1A46C501"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_1A46C50"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -2834,7 +2834,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2849,46 +2888,7 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -19580,7 +19580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -20213,8 +20213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS129"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23758,57 +23758,57 @@
     <row r="48" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I49" s="144"/>
-      <c r="J49" s="145" t="s">
+      <c r="J49" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="K49" s="145"/>
-      <c r="L49" s="145"/>
+      <c r="K49" s="146"/>
+      <c r="L49" s="146"/>
       <c r="M49" s="144"/>
-      <c r="N49" s="145" t="s">
+      <c r="N49" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="O49" s="145"/>
-      <c r="P49" s="145"/>
+      <c r="O49" s="146"/>
+      <c r="P49" s="146"/>
       <c r="Q49" s="144"/>
-      <c r="R49" s="145" t="s">
+      <c r="R49" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="S49" s="145"/>
-      <c r="T49" s="146"/>
+      <c r="S49" s="146"/>
+      <c r="T49" s="159"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I50" s="161"/>
-      <c r="J50" s="155"/>
-      <c r="K50" s="156" t="s">
+      <c r="I50" s="145"/>
+      <c r="J50" s="147"/>
+      <c r="K50" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="L50" s="157"/>
-      <c r="M50" s="161"/>
-      <c r="N50" s="155"/>
-      <c r="O50" s="156" t="s">
+      <c r="L50" s="151"/>
+      <c r="M50" s="145"/>
+      <c r="N50" s="147"/>
+      <c r="O50" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="P50" s="162"/>
-      <c r="Q50" s="161"/>
-      <c r="R50" s="155"/>
-      <c r="S50" s="156" t="s">
+      <c r="P50" s="154"/>
+      <c r="Q50" s="145"/>
+      <c r="R50" s="147"/>
+      <c r="S50" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="T50" s="157"/>
+      <c r="T50" s="151"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I51" s="161"/>
-      <c r="J51" s="155"/>
-      <c r="K51" s="158"/>
-      <c r="L51" s="159"/>
-      <c r="M51" s="161"/>
-      <c r="N51" s="155"/>
-      <c r="O51" s="158"/>
-      <c r="P51" s="163"/>
-      <c r="Q51" s="161"/>
-      <c r="R51" s="155"/>
-      <c r="S51" s="158"/>
-      <c r="T51" s="159"/>
+      <c r="I51" s="145"/>
+      <c r="J51" s="147"/>
+      <c r="K51" s="152"/>
+      <c r="L51" s="153"/>
+      <c r="M51" s="145"/>
+      <c r="N51" s="147"/>
+      <c r="O51" s="152"/>
+      <c r="P51" s="155"/>
+      <c r="Q51" s="145"/>
+      <c r="R51" s="147"/>
+      <c r="S51" s="152"/>
+      <c r="T51" s="153"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I52" s="1" t="s">
@@ -23817,24 +23817,24 @@
       <c r="J52" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K52" s="150"/>
-      <c r="L52" s="160"/>
+      <c r="K52" s="148"/>
+      <c r="L52" s="149"/>
       <c r="M52" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O52" s="150"/>
-      <c r="P52" s="160"/>
+      <c r="O52" s="148"/>
+      <c r="P52" s="149"/>
       <c r="Q52" s="1" t="s">
         <v>26</v>
       </c>
       <c r="R52" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S52" s="150"/>
-      <c r="T52" s="151"/>
+      <c r="S52" s="148"/>
+      <c r="T52" s="156"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I53" s="1" t="s">
@@ -23843,33 +23843,33 @@
       <c r="J53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K53" s="150">
+      <c r="K53" s="148">
         <f>D34-K57</f>
         <v>-2.5817066304626985</v>
       </c>
-      <c r="L53" s="160"/>
+      <c r="L53" s="149"/>
       <c r="M53" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O53" s="150">
+      <c r="O53" s="148">
         <f>B34-O57</f>
         <v>2.5817066304626968</v>
       </c>
-      <c r="P53" s="160"/>
+      <c r="P53" s="149"/>
       <c r="Q53" s="1" t="s">
         <v>23</v>
       </c>
       <c r="R53" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="S53" s="150">
+      <c r="S53" s="148">
         <f>O53</f>
         <v>2.5817066304626968</v>
       </c>
-      <c r="T53" s="151"/>
+      <c r="T53" s="156"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I54" s="1" t="s">
@@ -23878,33 +23878,33 @@
       <c r="J54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K54" s="150">
+      <c r="K54" s="148">
         <f>H34-K57</f>
         <v>-4.0141669290265201</v>
       </c>
-      <c r="L54" s="160"/>
+      <c r="L54" s="149"/>
       <c r="M54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O54" s="150">
+      <c r="O54" s="148">
         <f>F34-O57</f>
         <v>4.0141669290265165</v>
       </c>
-      <c r="P54" s="160"/>
+      <c r="P54" s="149"/>
       <c r="Q54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="R54" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="S54" s="150">
+      <c r="S54" s="148">
         <f>O54</f>
         <v>4.0141669290265165</v>
       </c>
-      <c r="T54" s="151"/>
+      <c r="T54" s="156"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I55" s="1" t="s">
@@ -23913,33 +23913,33 @@
       <c r="J55" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K55" s="150">
+      <c r="K55" s="148">
         <f>L34-K57</f>
         <v>1.9523322228064464</v>
       </c>
-      <c r="L55" s="160"/>
+      <c r="L55" s="149"/>
       <c r="M55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O55" s="150">
+      <c r="O55" s="148">
         <f>J34-O57</f>
         <v>-1.9523322228064472</v>
       </c>
-      <c r="P55" s="160"/>
+      <c r="P55" s="149"/>
       <c r="Q55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="R55" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="S55" s="150">
+      <c r="S55" s="148">
         <f>K55</f>
         <v>1.9523322228064464</v>
       </c>
-      <c r="T55" s="151"/>
+      <c r="T55" s="156"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I56" s="1" t="s">
@@ -23948,106 +23948,106 @@
       <c r="J56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K56" s="150">
+      <c r="K56" s="148">
         <f>P34-K57</f>
         <v>-3.0023103524682933</v>
       </c>
-      <c r="L56" s="160"/>
+      <c r="L56" s="149"/>
       <c r="M56" s="1" t="s">
         <v>9</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O56" s="150">
+      <c r="O56" s="148">
         <f>N34-O57</f>
         <v>3.0023103524682915</v>
       </c>
-      <c r="P56" s="160"/>
+      <c r="P56" s="149"/>
       <c r="Q56" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R56" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="S56" s="150">
+      <c r="S56" s="148">
         <f>O56</f>
         <v>3.0023103524682915</v>
       </c>
-      <c r="T56" s="151"/>
+      <c r="T56" s="156"/>
     </row>
     <row r="57" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I57" s="3" t="s">
         <v>28</v>
       </c>
       <c r="J57" s="4"/>
-      <c r="K57" s="150">
+      <c r="K57" s="148">
         <f>R34</f>
         <v>5.9910543475853251</v>
       </c>
-      <c r="L57" s="160"/>
+      <c r="L57" s="149"/>
       <c r="M57" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N57" s="4"/>
-      <c r="O57" s="150">
+      <c r="O57" s="148">
         <f>R34</f>
         <v>5.9910543475853251</v>
       </c>
-      <c r="P57" s="160"/>
+      <c r="P57" s="149"/>
       <c r="Q57" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R57" s="4"/>
-      <c r="S57" s="150">
+      <c r="S57" s="148">
         <f>R34</f>
         <v>5.9910543475853251</v>
       </c>
-      <c r="T57" s="151"/>
+      <c r="T57" s="156"/>
     </row>
     <row r="58" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I58" s="3" t="s">
         <v>29</v>
       </c>
       <c r="J58" s="4"/>
-      <c r="K58" s="152">
+      <c r="K58" s="157">
         <f>SUM(K53:L57)</f>
         <v>-1.6547973415657404</v>
       </c>
-      <c r="L58" s="154"/>
+      <c r="L58" s="158"/>
       <c r="M58" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N58" s="4"/>
-      <c r="O58" s="152">
+      <c r="O58" s="157">
         <f>SUM(O53:P57)</f>
         <v>13.636906036736383</v>
       </c>
-      <c r="P58" s="154"/>
+      <c r="P58" s="158"/>
       <c r="Q58" s="3" t="s">
         <v>29</v>
       </c>
       <c r="R58" s="4"/>
-      <c r="S58" s="152">
+      <c r="S58" s="157">
         <f>SUM(S53:T57)</f>
         <v>17.541570482349279</v>
       </c>
-      <c r="T58" s="153"/>
+      <c r="T58" s="163"/>
     </row>
     <row r="61" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="145"/>
-      <c r="C62" s="145"/>
-      <c r="D62" s="145"/>
-      <c r="E62" s="145"/>
-      <c r="F62" s="145"/>
-      <c r="G62" s="145"/>
-      <c r="H62" s="145"/>
-      <c r="I62" s="145"/>
-      <c r="J62" s="146"/>
+      <c r="B62" s="146"/>
+      <c r="C62" s="146"/>
+      <c r="D62" s="146"/>
+      <c r="E62" s="146"/>
+      <c r="F62" s="146"/>
+      <c r="G62" s="146"/>
+      <c r="H62" s="146"/>
+      <c r="I62" s="146"/>
+      <c r="J62" s="159"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -26120,19 +26120,19 @@
       </c>
     </row>
     <row r="86" spans="1:39" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="147" t="s">
+      <c r="A86" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="B86" s="148"/>
-      <c r="C86" s="148"/>
-      <c r="D86" s="148"/>
-      <c r="E86" s="148"/>
-      <c r="F86" s="148"/>
-      <c r="G86" s="148"/>
-      <c r="H86" s="148"/>
-      <c r="I86" s="148"/>
-      <c r="J86" s="148"/>
-      <c r="K86" s="149"/>
+      <c r="B86" s="161"/>
+      <c r="C86" s="161"/>
+      <c r="D86" s="161"/>
+      <c r="E86" s="161"/>
+      <c r="F86" s="161"/>
+      <c r="G86" s="161"/>
+      <c r="H86" s="161"/>
+      <c r="I86" s="161"/>
+      <c r="J86" s="161"/>
+      <c r="K86" s="162"/>
       <c r="R86" s="29" t="s">
         <v>92</v>
       </c>
@@ -29292,13 +29292,18 @@
     <sortCondition ref="Y104"/>
   </sortState>
   <mergeCells count="35">
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="Q49:Q51"/>
-    <mergeCell ref="K50:L51"/>
-    <mergeCell ref="O50:P51"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A86:K86"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="R50:R51"/>
+    <mergeCell ref="S50:T51"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="S53:T53"/>
     <mergeCell ref="S54:T54"/>
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="K58:L58"/>
@@ -29315,18 +29320,13 @@
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="O56:P56"/>
     <mergeCell ref="O57:P57"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="R50:R51"/>
-    <mergeCell ref="S50:T51"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A86:K86"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="Q49:Q51"/>
+    <mergeCell ref="K50:L51"/>
+    <mergeCell ref="O50:P51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31538,7 +31538,7 @@
       <c r="J64" s="18">
         <v>36.901529423353978</v>
       </c>
-      <c r="L64" s="161"/>
+      <c r="L64" s="145"/>
       <c r="M64" s="84">
         <v>1</v>
       </c>
@@ -31584,7 +31584,7 @@
       <c r="J65" s="18">
         <v>15.893124225939889</v>
       </c>
-      <c r="L65" s="161"/>
+      <c r="L65" s="145"/>
       <c r="M65" s="84">
         <v>120</v>
       </c>
@@ -31627,7 +31627,7 @@
       <c r="J66" s="18">
         <v>24.853402575389477</v>
       </c>
-      <c r="L66" s="161" t="s">
+      <c r="L66" s="145" t="s">
         <v>236</v>
       </c>
       <c r="M66" s="84" t="s">
@@ -31674,7 +31674,7 @@
       <c r="J67" s="18">
         <v>12.694791580559013</v>
       </c>
-      <c r="L67" s="161"/>
+      <c r="L67" s="145"/>
       <c r="M67" s="84">
         <v>1</v>
       </c>
@@ -31763,7 +31763,7 @@
       <c r="J69" s="18">
         <v>24.912937882314552</v>
       </c>
-      <c r="L69" s="161" t="s">
+      <c r="L69" s="145" t="s">
         <v>235</v>
       </c>
       <c r="M69" s="87" t="s">
@@ -31810,7 +31810,7 @@
       <c r="J70" s="18">
         <v>30.279746357001226</v>
       </c>
-      <c r="L70" s="161"/>
+      <c r="L70" s="145"/>
       <c r="M70" s="87">
         <v>1</v>
       </c>
@@ -36576,7 +36576,7 @@
       <c r="K64" s="18">
         <v>36.901529423353978</v>
       </c>
-      <c r="M64" s="161"/>
+      <c r="M64" s="145"/>
       <c r="N64" s="92">
         <v>1</v>
       </c>
@@ -36622,7 +36622,7 @@
       <c r="K65" s="18">
         <v>15.893124225939889</v>
       </c>
-      <c r="M65" s="161"/>
+      <c r="M65" s="145"/>
       <c r="N65" s="92">
         <v>120</v>
       </c>
@@ -36665,7 +36665,7 @@
       <c r="K66" s="18">
         <v>24.853402575389477</v>
       </c>
-      <c r="M66" s="161" t="s">
+      <c r="M66" s="145" t="s">
         <v>236</v>
       </c>
       <c r="N66" s="92" t="s">
@@ -36712,7 +36712,7 @@
       <c r="K67" s="18">
         <v>12.694791580559013</v>
       </c>
-      <c r="M67" s="161"/>
+      <c r="M67" s="145"/>
       <c r="N67" s="92">
         <v>1</v>
       </c>
@@ -36801,7 +36801,7 @@
       <c r="K69" s="18">
         <v>24.912937882314552</v>
       </c>
-      <c r="M69" s="161" t="s">
+      <c r="M69" s="145" t="s">
         <v>235</v>
       </c>
       <c r="N69" s="92" t="s">
@@ -36848,7 +36848,7 @@
       <c r="K70" s="18">
         <v>30.279746357001226</v>
       </c>
-      <c r="M70" s="161"/>
+      <c r="M70" s="145"/>
       <c r="N70" s="92">
         <v>1</v>
       </c>
@@ -40811,17 +40811,17 @@
     <sortCondition ref="B256"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="A185:H185"/>
-    <mergeCell ref="A166:I166"/>
-    <mergeCell ref="A246:H246"/>
-    <mergeCell ref="M69:M71"/>
-    <mergeCell ref="Q70:Q71"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="K54:K55"/>
     <mergeCell ref="M63:M65"/>
     <mergeCell ref="Q64:Q65"/>
     <mergeCell ref="M66:M68"/>
     <mergeCell ref="Q67:Q68"/>
+    <mergeCell ref="A185:H185"/>
+    <mergeCell ref="A166:I166"/>
+    <mergeCell ref="A246:H246"/>
+    <mergeCell ref="M69:M71"/>
+    <mergeCell ref="Q70:Q71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
